--- a/Code/Results/Cases/Case_0_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_line/loading_percent.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.876188098043737</v>
+        <v>1.876188098043747</v>
       </c>
       <c r="D2">
-        <v>3.558551766699388</v>
+        <v>3.558551766699321</v>
       </c>
       <c r="E2">
-        <v>8.952791657073124</v>
+        <v>8.952791657073202</v>
       </c>
       <c r="F2">
-        <v>39.0288208813059</v>
+        <v>39.02882088130615</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>29.02267184215291</v>
+        <v>29.02267184215309</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>63.36200905628137</v>
+        <v>63.36200905628154</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>38.53878773070564</v>
+        <v>38.53878773070573</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.596813975056182</v>
+        <v>1.596813975056055</v>
       </c>
       <c r="D3">
-        <v>3.067219439747279</v>
+        <v>3.067219439747094</v>
       </c>
       <c r="E3">
-        <v>8.560291552831464</v>
+        <v>8.560291552831387</v>
       </c>
       <c r="F3">
-        <v>35.52628641212298</v>
+        <v>35.52628641212258</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>26.35183839026413</v>
+        <v>26.3518383902638</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>58.69538361948467</v>
+        <v>58.69538361948442</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>35.66351860326153</v>
+        <v>35.66351860326138</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.429203037705878</v>
+        <v>1.429203037706012</v>
       </c>
       <c r="D4">
-        <v>2.771839439563946</v>
+        <v>2.771839439563876</v>
       </c>
       <c r="E4">
-        <v>8.317163350088103</v>
+        <v>8.317163350088146</v>
       </c>
       <c r="F4">
-        <v>33.39814970467599</v>
+        <v>33.39814970467573</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>24.72143464362465</v>
+        <v>24.72143464362442</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>55.71740805529679</v>
+        <v>55.71740805529669</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>33.83406317502858</v>
+        <v>33.83406317502848</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.361592582813871</v>
+        <v>1.361592582813874</v>
       </c>
       <c r="D5">
-        <v>2.652603866673453</v>
+        <v>2.652603866673394</v>
       </c>
       <c r="E5">
-        <v>8.217600886379358</v>
+        <v>8.217600886379337</v>
       </c>
       <c r="F5">
-        <v>32.53459728095161</v>
+        <v>32.53459728095162</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>24.0577944343494</v>
+        <v>24.05779443434939</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>54.47361259695007</v>
+        <v>54.47361259695001</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>33.0711455821446</v>
+        <v>33.07114558214456</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.350400380133052</v>
+        <v>1.350400380132937</v>
       </c>
       <c r="D6">
-        <v>2.632862613184751</v>
+        <v>2.632862613184565</v>
       </c>
       <c r="E6">
-        <v>8.201041434026703</v>
+        <v>8.201041434026541</v>
       </c>
       <c r="F6">
-        <v>32.39138413733421</v>
+        <v>32.3913841373339</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>23.94760621161609</v>
+        <v>23.94760621161583</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>54.26520421316121</v>
+        <v>54.265204213161</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>32.94337889909421</v>
+        <v>32.94337889909411</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.428288757090609</v>
+        <v>1.428288757090615</v>
       </c>
       <c r="D7">
-        <v>2.770227298328084</v>
+        <v>2.770227298328123</v>
       </c>
       <c r="E7">
-        <v>8.315822490005823</v>
+        <v>8.31582249000596</v>
       </c>
       <c r="F7">
-        <v>33.38649068224163</v>
+        <v>33.38649068224176</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>24.71248322923829</v>
+        <v>24.71248322923841</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>55.70075857282602</v>
+        <v>55.7007585728261</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>33.8238462114709</v>
+        <v>33.82384621147094</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.778844991924126</v>
+        <v>1.778844991924382</v>
       </c>
       <c r="D8">
-        <v>3.38752028759643</v>
+        <v>3.387520287596501</v>
       </c>
       <c r="E8">
-        <v>8.817918330961179</v>
+        <v>8.817918330961238</v>
       </c>
       <c r="F8">
-        <v>37.81506228168553</v>
+        <v>37.81506228168579</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>28.09863808831382</v>
+        <v>28.09863808831404</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>61.77507316539094</v>
+        <v>61.77507316539106</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>37.55982651250672</v>
+        <v>37.5598265125068</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.51537566300135</v>
+        <v>2.515375663001485</v>
       </c>
       <c r="D9">
-        <v>4.676675528595781</v>
+        <v>4.67667552859572</v>
       </c>
       <c r="E9">
-        <v>10.03062358406678</v>
+        <v>10.03062358406672</v>
       </c>
       <c r="F9">
-        <v>46.8157148196663</v>
+        <v>46.81571481966674</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>34.92380078613211</v>
+        <v>34.9238007861324</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>72.9023418655496</v>
+        <v>72.9023418655497</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>44.45255847161437</v>
+        <v>44.45255847161445</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.122416136757178</v>
+        <v>3.122416136757301</v>
       </c>
       <c r="D10">
-        <v>5.73069957474994</v>
+        <v>5.730699574749811</v>
       </c>
       <c r="E10">
-        <v>11.00878721677356</v>
+        <v>11.00878721677354</v>
       </c>
       <c r="F10">
-        <v>53.92389305879218</v>
+        <v>53.92389305879249</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>40.28459645670469</v>
+        <v>40.28459645670488</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>80.80795829697</v>
+        <v>80.80795829697016</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>49.39550420889371</v>
+        <v>49.39550420889376</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.426233954093928</v>
+        <v>3.426233954093936</v>
       </c>
       <c r="D11">
-        <v>6.255595982461045</v>
+        <v>6.255595982460988</v>
       </c>
       <c r="E11">
-        <v>11.44328174797385</v>
+        <v>11.44328174797383</v>
       </c>
       <c r="F11">
-        <v>57.38354058294566</v>
+        <v>57.38354058294556</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>42.8884790604239</v>
+        <v>42.88847906042378</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>84.4199662616717</v>
+        <v>84.41996626167155</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>51.66906148592157</v>
+        <v>51.66906148592152</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.54709799536716</v>
+        <v>3.547097995367161</v>
       </c>
       <c r="D12">
-        <v>6.463958872898787</v>
+        <v>6.46395887289897</v>
       </c>
       <c r="E12">
-        <v>11.60689344717731</v>
+        <v>11.60689344717728</v>
       </c>
       <c r="F12">
-        <v>58.74270487862476</v>
+        <v>58.74270487862547</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>43.91077361069669</v>
+        <v>43.91077361069728</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>85.79993910896758</v>
+        <v>85.79993910896798</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>52.54049342479144</v>
+        <v>52.54049342479169</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.520769510185962</v>
+        <v>3.520769510185836</v>
       </c>
       <c r="D13">
-        <v>6.418591144355649</v>
+        <v>6.418591144355655</v>
       </c>
       <c r="E13">
-        <v>11.57168573732166</v>
+        <v>11.57168573732168</v>
       </c>
       <c r="F13">
-        <v>58.44744314727481</v>
+        <v>58.44744314727522</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>43.68872095489235</v>
+        <v>43.68872095489264</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>85.5019832989023</v>
+        <v>85.50198329890245</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>52.35220106855412</v>
+        <v>52.35220106855425</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.436047084907671</v>
+        <v>3.436047084907806</v>
       </c>
       <c r="D14">
-        <v>6.272522585283986</v>
+        <v>6.272522585284109</v>
       </c>
       <c r="E14">
-        <v>11.45675643180063</v>
+        <v>11.45675643180062</v>
       </c>
       <c r="F14">
-        <v>57.49425064063891</v>
+        <v>57.49425064063923</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>42.97176234074701</v>
+        <v>42.97176234074728</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>84.53317889488198</v>
+        <v>84.53317889488218</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>51.74049283330259</v>
+        <v>51.74049283330271</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.384979608898593</v>
+        <v>3.384979608898595</v>
       </c>
       <c r="D15">
-        <v>6.18441840018928</v>
+        <v>6.184418400189204</v>
       </c>
       <c r="E15">
-        <v>11.38626030082324</v>
+        <v>11.38626030082329</v>
       </c>
       <c r="F15">
-        <v>56.91741860887493</v>
+        <v>56.91741860887445</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>42.53780571869531</v>
+        <v>42.53780571869491</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>83.94172114746591</v>
+        <v>83.94172114746571</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>51.36743104123538</v>
+        <v>51.36743104123524</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.103255375372973</v>
+        <v>3.103255375372842</v>
       </c>
       <c r="D16">
-        <v>5.697539880677775</v>
+        <v>5.697539880677585</v>
       </c>
       <c r="E16">
-        <v>10.98022604696642</v>
+        <v>10.98022604696641</v>
       </c>
       <c r="F16">
-        <v>53.70358502523182</v>
+        <v>53.7035850252315</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>40.11868729236057</v>
+        <v>40.11868729236031</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>80.57296920798807</v>
+        <v>80.57296920798788</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>49.24794362965604</v>
+        <v>49.24794362965589</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.938569977034752</v>
+        <v>2.938569977034483</v>
       </c>
       <c r="D17">
-        <v>5.412248633750613</v>
+        <v>5.412248633750687</v>
       </c>
       <c r="E17">
-        <v>10.7288033664878</v>
+        <v>10.72880336648779</v>
       </c>
       <c r="F17">
-        <v>51.79939473249547</v>
+        <v>51.79939473249549</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>38.684127258812</v>
+        <v>38.68412725881206</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>78.51613142144826</v>
+        <v>78.51613142144822</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>47.95809935896489</v>
+        <v>47.95809935896485</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.846306419812333</v>
+        <v>2.846306419812458</v>
       </c>
       <c r="D18">
-        <v>5.252188026032933</v>
+        <v>5.252188026032919</v>
       </c>
       <c r="E18">
-        <v>10.5831607282348</v>
+        <v>10.58316072823479</v>
       </c>
       <c r="F18">
-        <v>50.72411622179004</v>
+        <v>50.72411622179035</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>37.87356368850728</v>
+        <v>37.8735636885075</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>77.33379084677725</v>
+        <v>77.3337908467774</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>47.21802440990591</v>
+        <v>47.21802440990601</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.815447045560142</v>
+        <v>2.815447045560025</v>
       </c>
       <c r="D19">
-        <v>5.198615158844896</v>
+        <v>5.198615158844642</v>
       </c>
       <c r="E19">
-        <v>10.53365721352945</v>
+        <v>10.53365721352948</v>
       </c>
       <c r="F19">
-        <v>50.36308915277093</v>
+        <v>50.36308915277101</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>37.60133001436853</v>
+        <v>37.60133001436854</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>76.9333560280339</v>
+        <v>76.93335602803396</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>46.96759602407035</v>
+        <v>46.96759602407038</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.955835893829509</v>
+        <v>2.955835893829379</v>
       </c>
       <c r="D20">
-        <v>5.442183439273269</v>
+        <v>5.442183439273023</v>
       </c>
       <c r="E20">
-        <v>10.75567091331227</v>
+        <v>10.75567091331223</v>
       </c>
       <c r="F20">
-        <v>51.99993778316308</v>
+        <v>51.99993778316306</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>38.83525988539561</v>
+        <v>38.83525988539558</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>78.7349551116322</v>
+        <v>78.73495511163213</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>48.0951780568044</v>
+        <v>48.09517805680435</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1140,31 +1140,31 @@
         <v>3.460754968854679</v>
       </c>
       <c r="D21">
-        <v>6.315133707462214</v>
+        <v>6.31513370746213</v>
       </c>
       <c r="E21">
-        <v>11.49053309332089</v>
+        <v>11.49053309332097</v>
       </c>
       <c r="F21">
-        <v>57.77271956539968</v>
+        <v>57.77271956539901</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>43.18123441250067</v>
+        <v>43.18123441250015</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>84.8173060285941</v>
+        <v>84.81730602859392</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>51.91980977774359</v>
+        <v>51.91980977774343</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.826321269826841</v>
+        <v>3.82632126982684</v>
       </c>
       <c r="D22">
-        <v>6.944399967983799</v>
+        <v>6.944399967983807</v>
       </c>
       <c r="E22">
-        <v>11.96591594398652</v>
+        <v>11.96591594398656</v>
       </c>
       <c r="F22">
-        <v>61.84683225070538</v>
+        <v>61.84683225070508</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>46.24440893484802</v>
+        <v>46.24440893484783</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>88.87238646700656</v>
+        <v>88.87238646700652</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>54.48674476771336</v>
+        <v>54.48674476771333</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,34 +1213,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.627066269252929</v>
+        <v>3.627066269253049</v>
       </c>
       <c r="D23">
-        <v>6.601684665709176</v>
+        <v>6.60168466570913</v>
       </c>
       <c r="E23">
-        <v>11.71237699622155</v>
+        <v>11.71237699622153</v>
       </c>
       <c r="F23">
-        <v>59.6367682942646</v>
+        <v>59.63676829426565</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>44.58306761073563</v>
+        <v>44.58306761073638</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>86.69604915555968</v>
+        <v>86.69604915556006</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>53.1072553282978</v>
+        <v>53.10725532829805</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.948022570557796</v>
+        <v>2.948022570557531</v>
       </c>
       <c r="D24">
-        <v>5.428637794850154</v>
+        <v>5.428637794850149</v>
       </c>
       <c r="E24">
-        <v>10.74352755079992</v>
+        <v>10.7435275507999</v>
       </c>
       <c r="F24">
-        <v>51.90921275368445</v>
+        <v>51.9092127536845</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>38.76688948743248</v>
+        <v>38.76688948743253</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>78.63602508705191</v>
+        <v>78.63602508705196</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>48.03320065415087</v>
+        <v>48.03320065415088</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.307868176255652</v>
+        <v>2.307868176255657</v>
       </c>
       <c r="D25">
-        <v>4.314640928240984</v>
+        <v>4.314640928241052</v>
       </c>
       <c r="E25">
-        <v>9.658231295203858</v>
+        <v>9.658231295203809</v>
       </c>
       <c r="F25">
-        <v>44.32263634430679</v>
+        <v>44.32263634430709</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>33.03863566854091</v>
+        <v>33.03863566854115</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>69.95827135092169</v>
+        <v>69.95827135092176</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>42.62211468411952</v>
+        <v>42.62211468411961</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_line/loading_percent.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.876188098043747</v>
+        <v>1.876188098043737</v>
       </c>
       <c r="D2">
-        <v>3.558551766699321</v>
+        <v>3.558551766699388</v>
       </c>
       <c r="E2">
-        <v>8.952791657073202</v>
+        <v>8.952791657073124</v>
       </c>
       <c r="F2">
-        <v>39.02882088130615</v>
+        <v>39.0288208813059</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>29.02267184215309</v>
+        <v>29.02267184215291</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>63.36200905628154</v>
+        <v>63.36200905628137</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>38.53878773070573</v>
+        <v>38.53878773070564</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.596813975056055</v>
+        <v>1.596813975056182</v>
       </c>
       <c r="D3">
-        <v>3.067219439747094</v>
+        <v>3.067219439747279</v>
       </c>
       <c r="E3">
-        <v>8.560291552831387</v>
+        <v>8.560291552831464</v>
       </c>
       <c r="F3">
-        <v>35.52628641212258</v>
+        <v>35.52628641212298</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>26.3518383902638</v>
+        <v>26.35183839026413</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>58.69538361948442</v>
+        <v>58.69538361948467</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>35.66351860326138</v>
+        <v>35.66351860326153</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.429203037706012</v>
+        <v>1.429203037705878</v>
       </c>
       <c r="D4">
-        <v>2.771839439563876</v>
+        <v>2.771839439563946</v>
       </c>
       <c r="E4">
-        <v>8.317163350088146</v>
+        <v>8.317163350088103</v>
       </c>
       <c r="F4">
-        <v>33.39814970467573</v>
+        <v>33.39814970467599</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>24.72143464362442</v>
+        <v>24.72143464362465</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>55.71740805529669</v>
+        <v>55.71740805529679</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>33.83406317502848</v>
+        <v>33.83406317502858</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.361592582813874</v>
+        <v>1.361592582813871</v>
       </c>
       <c r="D5">
-        <v>2.652603866673394</v>
+        <v>2.652603866673453</v>
       </c>
       <c r="E5">
-        <v>8.217600886379337</v>
+        <v>8.217600886379358</v>
       </c>
       <c r="F5">
-        <v>32.53459728095162</v>
+        <v>32.53459728095161</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>24.05779443434939</v>
+        <v>24.0577944343494</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>54.47361259695001</v>
+        <v>54.47361259695007</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>33.07114558214456</v>
+        <v>33.0711455821446</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.350400380132937</v>
+        <v>1.350400380133052</v>
       </c>
       <c r="D6">
-        <v>2.632862613184565</v>
+        <v>2.632862613184751</v>
       </c>
       <c r="E6">
-        <v>8.201041434026541</v>
+        <v>8.201041434026703</v>
       </c>
       <c r="F6">
-        <v>32.3913841373339</v>
+        <v>32.39138413733421</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>23.94760621161583</v>
+        <v>23.94760621161609</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>54.265204213161</v>
+        <v>54.26520421316121</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>32.94337889909411</v>
+        <v>32.94337889909421</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.428288757090615</v>
+        <v>1.428288757090609</v>
       </c>
       <c r="D7">
-        <v>2.770227298328123</v>
+        <v>2.770227298328084</v>
       </c>
       <c r="E7">
-        <v>8.31582249000596</v>
+        <v>8.315822490005823</v>
       </c>
       <c r="F7">
-        <v>33.38649068224176</v>
+        <v>33.38649068224163</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>24.71248322923841</v>
+        <v>24.71248322923829</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>55.7007585728261</v>
+        <v>55.70075857282602</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>33.82384621147094</v>
+        <v>33.8238462114709</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.778844991924382</v>
+        <v>1.778844991924126</v>
       </c>
       <c r="D8">
-        <v>3.387520287596501</v>
+        <v>3.38752028759643</v>
       </c>
       <c r="E8">
-        <v>8.817918330961238</v>
+        <v>8.817918330961179</v>
       </c>
       <c r="F8">
-        <v>37.81506228168579</v>
+        <v>37.81506228168553</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>28.09863808831404</v>
+        <v>28.09863808831382</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>61.77507316539106</v>
+        <v>61.77507316539094</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>37.5598265125068</v>
+        <v>37.55982651250672</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.515375663001485</v>
+        <v>2.51537566300135</v>
       </c>
       <c r="D9">
-        <v>4.67667552859572</v>
+        <v>4.676675528595781</v>
       </c>
       <c r="E9">
-        <v>10.03062358406672</v>
+        <v>10.03062358406678</v>
       </c>
       <c r="F9">
-        <v>46.81571481966674</v>
+        <v>46.8157148196663</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>34.9238007861324</v>
+        <v>34.92380078613211</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>72.9023418655497</v>
+        <v>72.9023418655496</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>44.45255847161445</v>
+        <v>44.45255847161437</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.122416136757301</v>
+        <v>3.122416136757178</v>
       </c>
       <c r="D10">
-        <v>5.730699574749811</v>
+        <v>5.73069957474994</v>
       </c>
       <c r="E10">
-        <v>11.00878721677354</v>
+        <v>11.00878721677356</v>
       </c>
       <c r="F10">
-        <v>53.92389305879249</v>
+        <v>53.92389305879218</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>40.28459645670488</v>
+        <v>40.28459645670469</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>80.80795829697016</v>
+        <v>80.80795829697</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>49.39550420889376</v>
+        <v>49.39550420889371</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.426233954093936</v>
+        <v>3.426233954093928</v>
       </c>
       <c r="D11">
-        <v>6.255595982460988</v>
+        <v>6.255595982461045</v>
       </c>
       <c r="E11">
-        <v>11.44328174797383</v>
+        <v>11.44328174797385</v>
       </c>
       <c r="F11">
-        <v>57.38354058294556</v>
+        <v>57.38354058294566</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>42.88847906042378</v>
+        <v>42.8884790604239</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>84.41996626167155</v>
+        <v>84.4199662616717</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>51.66906148592152</v>
+        <v>51.66906148592157</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.547097995367161</v>
+        <v>3.54709799536716</v>
       </c>
       <c r="D12">
-        <v>6.46395887289897</v>
+        <v>6.463958872898787</v>
       </c>
       <c r="E12">
-        <v>11.60689344717728</v>
+        <v>11.60689344717731</v>
       </c>
       <c r="F12">
-        <v>58.74270487862547</v>
+        <v>58.74270487862476</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>43.91077361069728</v>
+        <v>43.91077361069669</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>85.79993910896798</v>
+        <v>85.79993910896758</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>52.54049342479169</v>
+        <v>52.54049342479144</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.520769510185836</v>
+        <v>3.520769510185962</v>
       </c>
       <c r="D13">
-        <v>6.418591144355655</v>
+        <v>6.418591144355649</v>
       </c>
       <c r="E13">
-        <v>11.57168573732168</v>
+        <v>11.57168573732166</v>
       </c>
       <c r="F13">
-        <v>58.44744314727522</v>
+        <v>58.44744314727481</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>43.68872095489264</v>
+        <v>43.68872095489235</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>85.50198329890245</v>
+        <v>85.5019832989023</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>52.35220106855425</v>
+        <v>52.35220106855412</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.436047084907806</v>
+        <v>3.436047084907671</v>
       </c>
       <c r="D14">
-        <v>6.272522585284109</v>
+        <v>6.272522585283986</v>
       </c>
       <c r="E14">
-        <v>11.45675643180062</v>
+        <v>11.45675643180063</v>
       </c>
       <c r="F14">
-        <v>57.49425064063923</v>
+        <v>57.49425064063891</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>42.97176234074728</v>
+        <v>42.97176234074701</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>84.53317889488218</v>
+        <v>84.53317889488198</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>51.74049283330271</v>
+        <v>51.74049283330259</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.384979608898595</v>
+        <v>3.384979608898593</v>
       </c>
       <c r="D15">
-        <v>6.184418400189204</v>
+        <v>6.18441840018928</v>
       </c>
       <c r="E15">
-        <v>11.38626030082329</v>
+        <v>11.38626030082324</v>
       </c>
       <c r="F15">
-        <v>56.91741860887445</v>
+        <v>56.91741860887493</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>42.53780571869491</v>
+        <v>42.53780571869531</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>83.94172114746571</v>
+        <v>83.94172114746591</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>51.36743104123524</v>
+        <v>51.36743104123538</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.103255375372842</v>
+        <v>3.103255375372973</v>
       </c>
       <c r="D16">
-        <v>5.697539880677585</v>
+        <v>5.697539880677775</v>
       </c>
       <c r="E16">
-        <v>10.98022604696641</v>
+        <v>10.98022604696642</v>
       </c>
       <c r="F16">
-        <v>53.7035850252315</v>
+        <v>53.70358502523182</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>40.11868729236031</v>
+        <v>40.11868729236057</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>80.57296920798788</v>
+        <v>80.57296920798807</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>49.24794362965589</v>
+        <v>49.24794362965604</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.938569977034483</v>
+        <v>2.938569977034752</v>
       </c>
       <c r="D17">
-        <v>5.412248633750687</v>
+        <v>5.412248633750613</v>
       </c>
       <c r="E17">
-        <v>10.72880336648779</v>
+        <v>10.7288033664878</v>
       </c>
       <c r="F17">
-        <v>51.79939473249549</v>
+        <v>51.79939473249547</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>38.68412725881206</v>
+        <v>38.684127258812</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>78.51613142144822</v>
+        <v>78.51613142144826</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>47.95809935896485</v>
+        <v>47.95809935896489</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.846306419812458</v>
+        <v>2.846306419812333</v>
       </c>
       <c r="D18">
-        <v>5.252188026032919</v>
+        <v>5.252188026032933</v>
       </c>
       <c r="E18">
-        <v>10.58316072823479</v>
+        <v>10.5831607282348</v>
       </c>
       <c r="F18">
-        <v>50.72411622179035</v>
+        <v>50.72411622179004</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>37.8735636885075</v>
+        <v>37.87356368850728</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>77.3337908467774</v>
+        <v>77.33379084677725</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>47.21802440990601</v>
+        <v>47.21802440990591</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.815447045560025</v>
+        <v>2.815447045560142</v>
       </c>
       <c r="D19">
-        <v>5.198615158844642</v>
+        <v>5.198615158844896</v>
       </c>
       <c r="E19">
-        <v>10.53365721352948</v>
+        <v>10.53365721352945</v>
       </c>
       <c r="F19">
-        <v>50.36308915277101</v>
+        <v>50.36308915277093</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>37.60133001436854</v>
+        <v>37.60133001436853</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>76.93335602803396</v>
+        <v>76.9333560280339</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>46.96759602407038</v>
+        <v>46.96759602407035</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.955835893829379</v>
+        <v>2.955835893829509</v>
       </c>
       <c r="D20">
-        <v>5.442183439273023</v>
+        <v>5.442183439273269</v>
       </c>
       <c r="E20">
-        <v>10.75567091331223</v>
+        <v>10.75567091331227</v>
       </c>
       <c r="F20">
-        <v>51.99993778316306</v>
+        <v>51.99993778316308</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>38.83525988539558</v>
+        <v>38.83525988539561</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>78.73495511163213</v>
+        <v>78.7349551116322</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>48.09517805680435</v>
+        <v>48.0951780568044</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1140,31 +1140,31 @@
         <v>3.460754968854679</v>
       </c>
       <c r="D21">
-        <v>6.31513370746213</v>
+        <v>6.315133707462214</v>
       </c>
       <c r="E21">
-        <v>11.49053309332097</v>
+        <v>11.49053309332089</v>
       </c>
       <c r="F21">
-        <v>57.77271956539901</v>
+        <v>57.77271956539968</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>43.18123441250015</v>
+        <v>43.18123441250067</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>84.81730602859392</v>
+        <v>84.8173060285941</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>51.91980977774343</v>
+        <v>51.91980977774359</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.82632126982684</v>
+        <v>3.826321269826841</v>
       </c>
       <c r="D22">
-        <v>6.944399967983807</v>
+        <v>6.944399967983799</v>
       </c>
       <c r="E22">
-        <v>11.96591594398656</v>
+        <v>11.96591594398652</v>
       </c>
       <c r="F22">
-        <v>61.84683225070508</v>
+        <v>61.84683225070538</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>46.24440893484783</v>
+        <v>46.24440893484802</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>88.87238646700652</v>
+        <v>88.87238646700656</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>54.48674476771333</v>
+        <v>54.48674476771336</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,34 +1213,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.627066269253049</v>
+        <v>3.627066269252929</v>
       </c>
       <c r="D23">
-        <v>6.60168466570913</v>
+        <v>6.601684665709176</v>
       </c>
       <c r="E23">
-        <v>11.71237699622153</v>
+        <v>11.71237699622155</v>
       </c>
       <c r="F23">
-        <v>59.63676829426565</v>
+        <v>59.6367682942646</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>44.58306761073638</v>
+        <v>44.58306761073563</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>86.69604915556006</v>
+        <v>86.69604915555968</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>53.10725532829805</v>
+        <v>53.1072553282978</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.948022570557531</v>
+        <v>2.948022570557796</v>
       </c>
       <c r="D24">
-        <v>5.428637794850149</v>
+        <v>5.428637794850154</v>
       </c>
       <c r="E24">
-        <v>10.7435275507999</v>
+        <v>10.74352755079992</v>
       </c>
       <c r="F24">
-        <v>51.9092127536845</v>
+        <v>51.90921275368445</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>38.76688948743253</v>
+        <v>38.76688948743248</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>78.63602508705196</v>
+        <v>78.63602508705191</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>48.03320065415088</v>
+        <v>48.03320065415087</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.307868176255657</v>
+        <v>2.307868176255652</v>
       </c>
       <c r="D25">
-        <v>4.314640928241052</v>
+        <v>4.314640928240984</v>
       </c>
       <c r="E25">
-        <v>9.658231295203809</v>
+        <v>9.658231295203858</v>
       </c>
       <c r="F25">
-        <v>44.32263634430709</v>
+        <v>44.32263634430679</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>33.03863566854115</v>
+        <v>33.03863566854091</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>69.95827135092176</v>
+        <v>69.95827135092169</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>42.62211468411961</v>
+        <v>42.62211468411952</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.876188098043737</v>
+        <v>1.734978083146451</v>
       </c>
       <c r="D2">
-        <v>3.558551766699388</v>
+        <v>3.400072424009626</v>
       </c>
       <c r="E2">
-        <v>8.952791657073124</v>
+        <v>8.872824440354098</v>
       </c>
       <c r="F2">
-        <v>39.0288208813059</v>
+        <v>38.75299928561505</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.947862443114905</v>
       </c>
       <c r="H2">
-        <v>29.02267184215291</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>28.78283987961855</v>
       </c>
       <c r="J2">
-        <v>63.36200905628137</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>63.15389456704695</v>
       </c>
       <c r="L2">
-        <v>38.53878773070564</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>38.4045180814911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.596813975056182</v>
+        <v>1.457063500821451</v>
       </c>
       <c r="D3">
-        <v>3.067219439747279</v>
+        <v>2.915232868083387</v>
       </c>
       <c r="E3">
-        <v>8.560291552831464</v>
+        <v>8.468494773467055</v>
       </c>
       <c r="F3">
-        <v>35.52628641212298</v>
+        <v>35.31399946350568</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.972024332295891</v>
       </c>
       <c r="H3">
-        <v>26.35183839026413</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>26.15578321637634</v>
       </c>
       <c r="J3">
-        <v>58.69538361948467</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>58.50201449408799</v>
       </c>
       <c r="L3">
-        <v>35.66351860326153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>35.53850306323288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.429203037705878</v>
+        <v>1.290582218117801</v>
       </c>
       <c r="D4">
-        <v>2.771839439563946</v>
+        <v>2.624627089279366</v>
       </c>
       <c r="E4">
-        <v>8.317163350088103</v>
+        <v>8.217401614551996</v>
       </c>
       <c r="F4">
-        <v>33.39814970467599</v>
+        <v>33.22888874534753</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.986740036180467</v>
       </c>
       <c r="H4">
-        <v>24.72143464362465</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>24.55496547174403</v>
       </c>
       <c r="J4">
-        <v>55.71740805529679</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>55.53276357896336</v>
       </c>
       <c r="L4">
-        <v>33.83406317502858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>33.71445443102893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.361592582813871</v>
+        <v>1.223517087342229</v>
       </c>
       <c r="D5">
-        <v>2.652603866673453</v>
+        <v>2.507591393792448</v>
       </c>
       <c r="E5">
-        <v>8.217600886379358</v>
+        <v>8.114417728248451</v>
       </c>
       <c r="F5">
-        <v>32.53459728095161</v>
+        <v>32.3840128144973</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.992729706729918</v>
       </c>
       <c r="H5">
-        <v>24.0577944343494</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>23.90416758031629</v>
       </c>
       <c r="J5">
-        <v>54.47361259695007</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>54.29247233081694</v>
       </c>
       <c r="L5">
-        <v>33.0711455821446</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>32.95369169064446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.350400380133052</v>
+        <v>1.212421524354701</v>
       </c>
       <c r="D6">
-        <v>2.632862613184751</v>
+        <v>2.488232750424303</v>
       </c>
       <c r="E6">
-        <v>8.201041434026703</v>
+        <v>8.097279600025075</v>
       </c>
       <c r="F6">
-        <v>32.39138413733421</v>
+        <v>32.24397365813986</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.993724452875706</v>
       </c>
       <c r="H6">
-        <v>23.94760621161609</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>23.79616231340335</v>
       </c>
       <c r="J6">
-        <v>54.26520421316121</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>54.08464349117271</v>
       </c>
       <c r="L6">
-        <v>32.94337889909421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>32.82628038483811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.428288757090609</v>
+        <v>1.289674906398265</v>
       </c>
       <c r="D7">
-        <v>2.770227298328084</v>
+        <v>2.62304350073178</v>
       </c>
       <c r="E7">
-        <v>8.315822490005823</v>
+        <v>8.216015320831575</v>
       </c>
       <c r="F7">
-        <v>33.38649068224163</v>
+        <v>33.21747680261363</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.98682081632771</v>
       </c>
       <c r="H7">
-        <v>24.71248322923829</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>24.54618393429982</v>
       </c>
       <c r="J7">
-        <v>55.70075857282602</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>55.51616152714946</v>
       </c>
       <c r="L7">
-        <v>33.8238462114709</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>33.70426670179437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.778844991924126</v>
+        <v>1.638103249626586</v>
       </c>
       <c r="D8">
-        <v>3.38752028759643</v>
+        <v>3.231145921141217</v>
       </c>
       <c r="E8">
-        <v>8.817918330961179</v>
+        <v>8.734017846531412</v>
       </c>
       <c r="F8">
-        <v>37.81506228168553</v>
+        <v>37.56039736294409</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.956233637186641</v>
       </c>
       <c r="H8">
-        <v>28.09863808831382</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>27.87340289660057</v>
       </c>
       <c r="J8">
-        <v>61.77507316539094</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>61.57213324292158</v>
       </c>
       <c r="L8">
-        <v>37.55982651250672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>37.42881945678386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.51537566300135</v>
+        <v>2.371415224261208</v>
       </c>
       <c r="D9">
-        <v>4.676675528595781</v>
+        <v>4.506534369736658</v>
       </c>
       <c r="E9">
-        <v>10.03062358406678</v>
+        <v>10.06022699176521</v>
       </c>
       <c r="F9">
-        <v>46.8157148196663</v>
+        <v>46.41820158180725</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.893956785097269</v>
       </c>
       <c r="H9">
-        <v>34.92380078613211</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>34.59935322847733</v>
       </c>
       <c r="J9">
-        <v>72.9023418655496</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>72.65871008869553</v>
       </c>
       <c r="L9">
-        <v>44.45255847161437</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>44.29554108918048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.122416136757178</v>
+        <v>2.975424477936993</v>
       </c>
       <c r="D10">
-        <v>5.73069957474994</v>
+        <v>5.550371728945609</v>
       </c>
       <c r="E10">
-        <v>11.00878721677356</v>
+        <v>11.04260914914684</v>
       </c>
       <c r="F10">
-        <v>53.92389305879218</v>
+        <v>53.42465503455861</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.844175071013647</v>
       </c>
       <c r="H10">
-        <v>40.28459645670469</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>39.88822815374959</v>
       </c>
       <c r="J10">
-        <v>80.80795829697</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>80.52666089790441</v>
       </c>
       <c r="L10">
-        <v>49.39550420889371</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>49.21385139897817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.426233954093928</v>
+        <v>3.277305473614567</v>
       </c>
       <c r="D11">
-        <v>6.255595982461045</v>
+        <v>6.069814445173187</v>
       </c>
       <c r="E11">
-        <v>11.44328174797385</v>
+        <v>11.47869467885605</v>
       </c>
       <c r="F11">
-        <v>57.38354058294566</v>
+        <v>56.83426010442913</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.819699896993762</v>
       </c>
       <c r="H11">
-        <v>42.8884790604239</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>42.45628687461199</v>
       </c>
       <c r="J11">
-        <v>84.4199662616717</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>84.11763638164263</v>
       </c>
       <c r="L11">
-        <v>51.66906148592157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>51.47348156445635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.54709799536716</v>
+        <v>3.397291848617413</v>
       </c>
       <c r="D12">
-        <v>6.463958872898787</v>
+        <v>6.275876739065038</v>
       </c>
       <c r="E12">
-        <v>11.60689344717731</v>
+        <v>11.64285580647086</v>
       </c>
       <c r="F12">
-        <v>58.74270487862476</v>
+        <v>58.17325516919377</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.81003928797294</v>
       </c>
       <c r="H12">
-        <v>43.91077361069669</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>43.46406396754973</v>
       </c>
       <c r="J12">
-        <v>85.79993910896758</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>85.48872145373461</v>
       </c>
       <c r="L12">
-        <v>52.54049342479144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>52.33899785451256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.520769510185962</v>
+        <v>3.37116033125413</v>
       </c>
       <c r="D13">
-        <v>6.418591144355649</v>
+        <v>6.231017712209762</v>
       </c>
       <c r="E13">
-        <v>11.57168573732166</v>
+        <v>11.60753230070174</v>
       </c>
       <c r="F13">
-        <v>58.44744314727481</v>
+        <v>57.88240734699929</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.812140096833134</v>
       </c>
       <c r="H13">
-        <v>43.68872095489235</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>43.24519209374855</v>
       </c>
       <c r="J13">
-        <v>85.5019832989023</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>85.19272953305298</v>
       </c>
       <c r="L13">
-        <v>52.35220106855412</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>52.15201409492843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.436047084907671</v>
+        <v>3.287049820103848</v>
       </c>
       <c r="D14">
-        <v>6.272522585283986</v>
+        <v>6.086557451878575</v>
       </c>
       <c r="E14">
-        <v>11.45675643180063</v>
+        <v>11.4922156872183</v>
       </c>
       <c r="F14">
-        <v>57.49425064063891</v>
+        <v>56.94334077924238</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.818913949067797</v>
       </c>
       <c r="H14">
-        <v>42.97176234074701</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>42.53839898859975</v>
       </c>
       <c r="J14">
-        <v>84.53317889488198</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>84.23013932897344</v>
       </c>
       <c r="L14">
-        <v>51.74049283330259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>51.54444117553919</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.384979608898593</v>
+        <v>3.23633571804157</v>
       </c>
       <c r="D15">
-        <v>6.18441840018928</v>
+        <v>5.999402941869544</v>
       </c>
       <c r="E15">
-        <v>11.38626030082324</v>
+        <v>11.42147511624555</v>
       </c>
       <c r="F15">
-        <v>56.91741860887493</v>
+        <v>56.37497485736429</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.823007112029103</v>
       </c>
       <c r="H15">
-        <v>42.53780571869531</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>42.11052444286126</v>
       </c>
       <c r="J15">
-        <v>83.94172114746591</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>83.64235263924479</v>
       </c>
       <c r="L15">
-        <v>51.36743104123538</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>51.17381836770237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.103255375372973</v>
+        <v>2.956374499403979</v>
       </c>
       <c r="D16">
-        <v>5.697539880677775</v>
+        <v>5.517543468658769</v>
       </c>
       <c r="E16">
-        <v>10.98022604696642</v>
+        <v>11.01393704542824</v>
       </c>
       <c r="F16">
-        <v>53.70358502523182</v>
+        <v>53.20749271821713</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.845728039991327</v>
       </c>
       <c r="H16">
-        <v>40.11868729236057</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>39.72456126701144</v>
       </c>
       <c r="J16">
-        <v>80.57296920798807</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>80.29294208131843</v>
       </c>
       <c r="L16">
-        <v>49.24794362965604</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>49.06712843804578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.938569977034752</v>
+        <v>2.792593689958491</v>
       </c>
       <c r="D17">
-        <v>5.412248633750613</v>
+        <v>5.235057481038098</v>
       </c>
       <c r="E17">
-        <v>10.7288033664878</v>
+        <v>10.76150548080233</v>
       </c>
       <c r="F17">
-        <v>51.79939473249547</v>
+        <v>51.33040567227876</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.859123248435406</v>
       </c>
       <c r="H17">
-        <v>38.684127258812</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>38.30927219241197</v>
       </c>
       <c r="J17">
-        <v>78.51613142144826</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>78.24677933579861</v>
       </c>
       <c r="L17">
-        <v>47.95809935896489</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>47.78430596080477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.846306419812333</v>
+        <v>2.700803175081598</v>
       </c>
       <c r="D18">
-        <v>5.252188026032933</v>
+        <v>5.076542717569572</v>
       </c>
       <c r="E18">
-        <v>10.5831607282348</v>
+        <v>10.6152522858943</v>
       </c>
       <c r="F18">
-        <v>50.72411622179004</v>
+        <v>50.27041685275611</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.86666584837698</v>
       </c>
       <c r="H18">
-        <v>37.87356368850728</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>37.50954155910361</v>
       </c>
       <c r="J18">
-        <v>77.33379084677725</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>77.07024210099182</v>
       </c>
       <c r="L18">
-        <v>47.21802440990591</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>47.04803464087791</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.815447045560142</v>
+        <v>2.670097201303785</v>
       </c>
       <c r="D19">
-        <v>5.198615158844896</v>
+        <v>5.023484172799851</v>
       </c>
       <c r="E19">
-        <v>10.53365721352945</v>
+        <v>10.56553693029249</v>
       </c>
       <c r="F19">
-        <v>50.36308915277093</v>
+        <v>49.91452983735102</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.869194868742546</v>
       </c>
       <c r="H19">
-        <v>37.60133001436853</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>37.24094347481399</v>
       </c>
       <c r="J19">
-        <v>76.9333560280339</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>76.67172197326889</v>
       </c>
       <c r="L19">
-        <v>46.96759602407035</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>46.79885895577567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.955835893829509</v>
+        <v>2.809768540965503</v>
       </c>
       <c r="D20">
-        <v>5.442183439273269</v>
+        <v>5.26470130054916</v>
       </c>
       <c r="E20">
-        <v>10.75567091331227</v>
+        <v>10.788483580826</v>
       </c>
       <c r="F20">
-        <v>51.99993778316308</v>
+        <v>51.52809817874087</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.857714821661209</v>
       </c>
       <c r="H20">
-        <v>38.83525988539561</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>38.45838211243785</v>
       </c>
       <c r="J20">
-        <v>78.7349551116322</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>78.46450340249122</v>
       </c>
       <c r="L20">
-        <v>48.0951780568044</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>47.92066282756991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.460754968854679</v>
+        <v>3.311582623901938</v>
       </c>
       <c r="D21">
-        <v>6.315133707462214</v>
+        <v>6.128703899415743</v>
       </c>
       <c r="E21">
-        <v>11.49053309332089</v>
+        <v>11.5261076331283</v>
       </c>
       <c r="F21">
-        <v>57.77271956539968</v>
+        <v>57.21770134243358</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.816936306994469</v>
       </c>
       <c r="H21">
-        <v>43.18123441250067</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>42.74491676825155</v>
       </c>
       <c r="J21">
-        <v>84.8173060285941</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>84.51247045327059</v>
       </c>
       <c r="L21">
-        <v>51.91980977774359</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>51.72256379838353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.826321269826841</v>
+        <v>3.674206010787324</v>
       </c>
       <c r="D22">
-        <v>6.944399967983799</v>
+        <v>6.750621005806712</v>
       </c>
       <c r="E22">
-        <v>11.96591594398652</v>
+        <v>12.00297694557631</v>
       </c>
       <c r="F22">
-        <v>61.84683225070538</v>
+        <v>61.22960493891455</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.787881556362057</v>
       </c>
       <c r="H22">
-        <v>46.24440893484802</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>45.76314253309638</v>
       </c>
       <c r="J22">
-        <v>88.87238646700656</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>88.53928659974657</v>
       </c>
       <c r="L22">
-        <v>54.48674476771336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>54.27061717580034</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.627066269252929</v>
+        <v>3.476641054149147</v>
       </c>
       <c r="D23">
-        <v>6.601684665709176</v>
+        <v>6.412029537533524</v>
       </c>
       <c r="E23">
-        <v>11.71237699622155</v>
+        <v>11.7486779997582</v>
       </c>
       <c r="F23">
-        <v>59.6367682942646</v>
+        <v>59.05382931769196</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.803670687353821</v>
       </c>
       <c r="H23">
-        <v>44.58306761073563</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>44.1266246015967</v>
       </c>
       <c r="J23">
-        <v>86.69604915555968</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>86.37876667375895</v>
       </c>
       <c r="L23">
-        <v>53.1072553282978</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>52.90171361191373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.948022570557796</v>
+        <v>2.801996530909553</v>
       </c>
       <c r="D24">
-        <v>5.428637794850154</v>
+        <v>5.251287411829059</v>
       </c>
       <c r="E24">
-        <v>10.74352755079992</v>
+        <v>10.77629033199655</v>
       </c>
       <c r="F24">
-        <v>51.90921275368445</v>
+        <v>51.43866274712274</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.858352056287912</v>
       </c>
       <c r="H24">
-        <v>38.76688948743248</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>38.39092691441014</v>
       </c>
       <c r="J24">
-        <v>78.63602508705191</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>78.3660715345294</v>
       </c>
       <c r="L24">
-        <v>48.03320065415087</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>47.85901247543652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.307868176255652</v>
+        <v>2.164795228970093</v>
       </c>
       <c r="D25">
-        <v>4.314640928240984</v>
+        <v>4.148030820103131</v>
       </c>
       <c r="E25">
-        <v>9.658231295203858</v>
+        <v>9.686002410474041</v>
       </c>
       <c r="F25">
-        <v>44.32263634430679</v>
+        <v>43.96212635829194</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.911271869782434</v>
       </c>
       <c r="H25">
-        <v>33.03863566854091</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>32.74006080451628</v>
       </c>
       <c r="J25">
-        <v>69.95827135092169</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>69.72652627239844</v>
       </c>
       <c r="L25">
-        <v>42.62211468411952</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>42.47277157443061</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.734978083146451</v>
+        <v>7.646231736076635</v>
       </c>
       <c r="D2">
-        <v>3.400072424009626</v>
+        <v>3.304939816828706</v>
       </c>
       <c r="E2">
-        <v>8.872824440354098</v>
+        <v>8.862777471129293</v>
       </c>
       <c r="F2">
-        <v>38.75299928561505</v>
+        <v>38.04776686819518</v>
       </c>
       <c r="G2">
-        <v>1.947862443114905</v>
+        <v>1.948679708240399</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>28.78283987961855</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>63.15389456704695</v>
+        <v>63.12733790411615</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>38.4045180814911</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>38.38728654825979</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>29.61275943821479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.457063500821451</v>
+        <v>7.047567154536241</v>
       </c>
       <c r="D3">
-        <v>2.915232868083387</v>
+        <v>2.83313679309916</v>
       </c>
       <c r="E3">
-        <v>8.468494773467055</v>
+        <v>8.46510995241745</v>
       </c>
       <c r="F3">
-        <v>35.31399946350568</v>
+        <v>34.67078538884904</v>
       </c>
       <c r="G3">
-        <v>1.972024332295891</v>
+        <v>1.972259938941108</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.15578321637634</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>58.50201449408799</v>
+        <v>58.49481393483808</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>35.53850306323288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>35.53381887418423</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>26.88314956868416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.290582218117801</v>
+        <v>6.66895915176667</v>
       </c>
       <c r="D4">
-        <v>2.624627089279366</v>
+        <v>2.549773995599285</v>
       </c>
       <c r="E4">
-        <v>8.217401614551996</v>
+        <v>8.219142713092483</v>
       </c>
       <c r="F4">
-        <v>33.22888874534753</v>
+        <v>32.62071721471609</v>
       </c>
       <c r="G4">
-        <v>1.986740036180467</v>
+        <v>1.986629592764802</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.55496547174403</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>55.53276357896336</v>
+        <v>55.53600716412224</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>33.71445443102893</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>33.7165693603066</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>25.22561533318736</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.223517087342229</v>
+        <v>6.51158910376911</v>
       </c>
       <c r="D5">
-        <v>2.507591393792448</v>
+        <v>2.43549070350333</v>
       </c>
       <c r="E5">
-        <v>8.114417728248451</v>
+        <v>8.118504206438386</v>
       </c>
       <c r="F5">
-        <v>32.3840128144973</v>
+        <v>31.78943535226105</v>
       </c>
       <c r="G5">
-        <v>1.992729706729918</v>
+        <v>1.99248000607879</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.90416758031629</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>54.29247233081694</v>
+        <v>54.29968355309818</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>32.95369169064446</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>32.95839900340275</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>24.55328033138381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.212421524354701</v>
+        <v>6.485263516749773</v>
       </c>
       <c r="D6">
-        <v>2.488232750424303</v>
+        <v>2.416576535063969</v>
       </c>
       <c r="E6">
-        <v>8.097279600025075</v>
+        <v>8.101770906060809</v>
       </c>
       <c r="F6">
-        <v>32.24397365813986</v>
+        <v>31.65161366279375</v>
       </c>
       <c r="G6">
-        <v>1.993724452875706</v>
+        <v>1.993451709452279</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.79616231340335</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>54.08464349117271</v>
+        <v>54.09249795599089</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>32.82628038483811</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>32.83140862184449</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>24.44179477118422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.289674906398265</v>
+        <v>6.66684966614361</v>
       </c>
       <c r="D7">
-        <v>2.62304350073178</v>
+        <v>2.5482283549642</v>
       </c>
       <c r="E7">
-        <v>8.216015320831575</v>
+        <v>8.217787016415382</v>
       </c>
       <c r="F7">
-        <v>33.21747680261363</v>
+        <v>32.60949130685061</v>
       </c>
       <c r="G7">
-        <v>1.98682081632771</v>
+        <v>1.986708488894498</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.54618393429982</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>55.51616152714946</v>
+        <v>55.51945970396788</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>33.70426670179437</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>33.70641725792781</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>25.21653692986606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.638103249626586</v>
+        <v>7.441894705606549</v>
       </c>
       <c r="D8">
-        <v>3.231145921141217</v>
+        <v>3.140666543786681</v>
       </c>
       <c r="E8">
-        <v>8.734017846531412</v>
+        <v>8.726050763358597</v>
       </c>
       <c r="F8">
-        <v>37.56039736294409</v>
+        <v>36.87723803901201</v>
       </c>
       <c r="G8">
-        <v>1.956233637186641</v>
+        <v>1.956847340907574</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27.87340289660057</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>61.57213324292158</v>
+        <v>61.55260003661013</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>37.42881945678386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>37.41613574025781</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>28.66665511891679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.371415224261208</v>
+        <v>8.892154496617895</v>
       </c>
       <c r="D9">
-        <v>4.506534369736658</v>
+        <v>4.378777312900479</v>
       </c>
       <c r="E9">
-        <v>10.06022699176521</v>
+        <v>10.07111466537239</v>
       </c>
       <c r="F9">
-        <v>46.41820158180725</v>
+        <v>45.55739067026941</v>
       </c>
       <c r="G9">
-        <v>1.893956785097269</v>
+        <v>1.896147590145872</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>34.59935322847733</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>72.65871008869553</v>
+        <v>72.57828790338966</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>44.29554108918048</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>44.2434601233395</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>35.68514003595664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.975424477936993</v>
+        <v>9.949472311636761</v>
       </c>
       <c r="D10">
-        <v>5.550371728945609</v>
+        <v>5.388892045921997</v>
       </c>
       <c r="E10">
-        <v>11.04260914914684</v>
+        <v>11.06182751829402</v>
       </c>
       <c r="F10">
-        <v>53.42465503455861</v>
+        <v>52.3994262462238</v>
       </c>
       <c r="G10">
-        <v>1.844175071013647</v>
+        <v>1.847762204952216</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>39.88822815374959</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>80.52666089790441</v>
+        <v>80.38133730342574</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>49.21385139897817</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>49.11961709841179</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>41.22619553040306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.277305473614567</v>
+        <v>10.44083890150493</v>
       </c>
       <c r="D11">
-        <v>6.069814445173187</v>
+        <v>5.890347272207121</v>
       </c>
       <c r="E11">
-        <v>11.47869467885605</v>
+        <v>11.50226696067956</v>
       </c>
       <c r="F11">
-        <v>56.83426010442913</v>
+        <v>55.71968985877675</v>
       </c>
       <c r="G11">
-        <v>1.819699896993762</v>
+        <v>1.824035671536438</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>42.45628687461199</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>84.11763638164263</v>
+        <v>83.93396973071209</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>51.47348156445635</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>51.35421039667768</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>43.9191872459303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.397291848617413</v>
+        <v>10.63001788946932</v>
       </c>
       <c r="D12">
-        <v>6.275876739065038</v>
+        <v>6.08900475859046</v>
       </c>
       <c r="E12">
-        <v>11.64285580647086</v>
+        <v>11.66816855333754</v>
       </c>
       <c r="F12">
-        <v>58.17325516919377</v>
+        <v>57.02159477676732</v>
       </c>
       <c r="G12">
-        <v>1.81003928797294</v>
+        <v>1.81468461999896</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>43.46406396754973</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>85.48872145373461</v>
+        <v>85.28856673492582</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>52.33899785451256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>52.20892803198151</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>44.97594141258433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.37116033125413</v>
+        <v>10.58910227111348</v>
       </c>
       <c r="D13">
-        <v>6.231017712209762</v>
+        <v>6.045771942690074</v>
       </c>
       <c r="E13">
-        <v>11.60753230070174</v>
+        <v>11.63246596254866</v>
       </c>
       <c r="F13">
-        <v>57.88240734699929</v>
+        <v>56.73890750327437</v>
       </c>
       <c r="G13">
-        <v>1.812140096833134</v>
+        <v>1.816717372374976</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>43.24519209374855</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>85.19272953305298</v>
+        <v>84.99622976267823</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>52.15201409492843</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>52.02433972640628</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>44.74644470401052</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.287049820103848</v>
+        <v>10.45632843403219</v>
       </c>
       <c r="D14">
-        <v>6.086557451878575</v>
+        <v>5.906494731039088</v>
       </c>
       <c r="E14">
-        <v>11.4922156872183</v>
+        <v>11.51592925962723</v>
       </c>
       <c r="F14">
-        <v>56.94334077924238</v>
+        <v>55.82579399859335</v>
       </c>
       <c r="G14">
-        <v>1.818913949067797</v>
+        <v>1.82327458927901</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>42.53839898859975</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>84.23013932897344</v>
+        <v>84.04516134737669</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>51.54444117553919</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>51.42431188556531</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>44.00529434445144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.23633571804157</v>
+        <v>10.37546639751356</v>
       </c>
       <c r="D15">
-        <v>5.999402941869544</v>
+        <v>5.822428905554425</v>
       </c>
       <c r="E15">
-        <v>11.42147511624555</v>
+        <v>11.44445360935403</v>
       </c>
       <c r="F15">
-        <v>56.37497485736429</v>
+        <v>55.27285266091826</v>
       </c>
       <c r="G15">
-        <v>1.823007112029103</v>
+        <v>1.827238849658245</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>42.11052444286126</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>83.64235263924479</v>
+        <v>83.46414713449661</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>51.17381836770237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>51.05811958925754</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>43.55659735457796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.956374499403979</v>
+        <v>9.917691525235636</v>
       </c>
       <c r="D16">
-        <v>5.517543468658769</v>
+        <v>5.357170882831695</v>
       </c>
       <c r="E16">
-        <v>11.01393704542824</v>
+        <v>11.03288312667455</v>
       </c>
       <c r="F16">
-        <v>53.20749271821713</v>
+        <v>52.18772637417582</v>
       </c>
       <c r="G16">
-        <v>1.845728039991327</v>
+        <v>1.849269233043527</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>39.72456126701144</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>80.29294208131843</v>
+        <v>80.14989642487505</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>49.06712843804578</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>48.97437828732645</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>41.05458711083921</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.792593689958491</v>
+        <v>9.640464088328757</v>
       </c>
       <c r="D17">
-        <v>5.235057481038098</v>
+        <v>5.084078690617274</v>
       </c>
       <c r="E17">
-        <v>10.76150548080233</v>
+        <v>10.77812964700186</v>
       </c>
       <c r="F17">
-        <v>51.33040567227876</v>
+        <v>50.35681349301178</v>
       </c>
       <c r="G17">
-        <v>1.859123248435406</v>
+        <v>1.86227512356827</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>38.30927219241197</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>78.24677933579861</v>
+        <v>78.12266694721431</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>47.78430596080477</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>47.70387766683744</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>39.57086939620444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.700803175081598</v>
+        <v>9.481861272574669</v>
       </c>
       <c r="D18">
-        <v>5.076542717569572</v>
+        <v>4.9307357012388</v>
       </c>
       <c r="E18">
-        <v>10.6152522858943</v>
+        <v>10.63059331664612</v>
       </c>
       <c r="F18">
-        <v>50.27041685275611</v>
+        <v>49.32211076750912</v>
       </c>
       <c r="G18">
-        <v>1.86666584837698</v>
+        <v>1.869603670702236</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>37.50954155910361</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>77.07024210099182</v>
+        <v>76.95624736648782</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>47.04803464087791</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>46.97418116896523</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>38.73272844039741</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.670097201303785</v>
+        <v>9.428268848756307</v>
       </c>
       <c r="D19">
-        <v>5.023484172799851</v>
+        <v>4.879392975488049</v>
       </c>
       <c r="E19">
-        <v>10.56553693029249</v>
+        <v>10.5804521962176</v>
       </c>
       <c r="F19">
-        <v>49.91452983735102</v>
+        <v>48.97459144955164</v>
       </c>
       <c r="G19">
-        <v>1.869194868742546</v>
+        <v>1.872061702777526</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>37.24094347481399</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>76.67172197326889</v>
+        <v>76.56103530404101</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>46.79885895577567</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>46.72715376396459</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>38.45128180417777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.809768540965503</v>
+        <v>9.669877854865792</v>
       </c>
       <c r="D20">
-        <v>5.26470130054916</v>
+        <v>5.112747585640168</v>
       </c>
       <c r="E20">
-        <v>10.788483580826</v>
+        <v>10.80534942368685</v>
       </c>
       <c r="F20">
-        <v>51.52809817874087</v>
+        <v>50.54972854254426</v>
       </c>
       <c r="G20">
-        <v>1.857714821661209</v>
+        <v>1.860907066168569</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>38.45838211243785</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>78.46450340249122</v>
+        <v>78.338459226639</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>47.92066282756991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>47.83897842620452</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>39.72716403274863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.311582623901938</v>
+        <v>10.49522620877638</v>
       </c>
       <c r="D21">
-        <v>6.128703899415743</v>
+        <v>5.947137342891738</v>
       </c>
       <c r="E21">
-        <v>11.5261076331283</v>
+        <v>11.55017700220469</v>
       </c>
       <c r="F21">
-        <v>57.21770134243358</v>
+        <v>56.09263330089696</v>
       </c>
       <c r="G21">
-        <v>1.816936306994469</v>
+        <v>1.821359760282969</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>42.74491676825155</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>84.51247045327059</v>
+        <v>84.32416960379969</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>51.72256379838353</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>51.600259500545</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>44.22185707793909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.674206010787324</v>
+        <v>11.05418402217145</v>
       </c>
       <c r="D22">
-        <v>6.750621005806712</v>
+        <v>6.546005150607201</v>
       </c>
       <c r="E22">
-        <v>12.00297694557631</v>
+        <v>12.03229268430012</v>
       </c>
       <c r="F22">
-        <v>61.22960493891455</v>
+        <v>59.98838113469706</v>
       </c>
       <c r="G22">
-        <v>1.787881556362057</v>
+        <v>1.793272175091666</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>45.76314253309638</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>88.53928659974657</v>
+        <v>88.29806541742653</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>54.27061717580034</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>54.1135665054495</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>47.38586526854041</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.476641054149147</v>
+        <v>10.7533041121928</v>
       </c>
       <c r="D23">
-        <v>6.412029537533524</v>
+        <v>6.220171041007585</v>
       </c>
       <c r="E23">
-        <v>11.7486779997582</v>
+        <v>11.77514120035727</v>
       </c>
       <c r="F23">
-        <v>59.05382931769196</v>
+        <v>57.87709453609347</v>
       </c>
       <c r="G23">
-        <v>1.803670687353821</v>
+        <v>1.808524962926186</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>44.1266246015967</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>86.37876667375895</v>
+        <v>86.16728811872292</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>52.90171361191373</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>52.76421603697957</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>45.67060660152688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.801996530909553</v>
+        <v>9.656577574772209</v>
       </c>
       <c r="D24">
-        <v>5.251287411829059</v>
+        <v>5.099775159449791</v>
       </c>
       <c r="E24">
-        <v>10.77629033199655</v>
+        <v>10.79304675242158</v>
       </c>
       <c r="F24">
-        <v>51.43866274712274</v>
+        <v>50.46245684899496</v>
       </c>
       <c r="G24">
-        <v>1.858352056287912</v>
+        <v>1.861526019995159</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>38.39092691441014</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>78.3660715345294</v>
+        <v>78.24090306453712</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>47.85901247543652</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>47.77789751557791</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>39.6564577431413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.164795228970093</v>
+        <v>8.504349530113837</v>
       </c>
       <c r="D25">
-        <v>4.148030820103131</v>
+        <v>4.031205130563344</v>
       </c>
       <c r="E25">
-        <v>9.686002410474041</v>
+        <v>9.694259083755039</v>
       </c>
       <c r="F25">
-        <v>43.96212635829194</v>
+        <v>43.1537539785645</v>
       </c>
       <c r="G25">
-        <v>1.911271869782434</v>
+        <v>1.913008307212299</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>32.74006080451628</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>69.72652627239844</v>
+        <v>69.66511189189258</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>42.47277157443061</v>
+        <v>42.43299317622699</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>33.74075442703628</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.646231736076635</v>
+        <v>5.750187311740352</v>
       </c>
       <c r="D2">
-        <v>3.304939816828706</v>
+        <v>5.196749386847245</v>
       </c>
       <c r="E2">
-        <v>8.862777471129293</v>
+        <v>9.268181751283496</v>
       </c>
       <c r="F2">
-        <v>38.04776686819518</v>
+        <v>37.69297570188094</v>
       </c>
       <c r="G2">
-        <v>1.948679708240399</v>
+        <v>2.095909219184557</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>30.16539699505152</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>63.12733790411615</v>
+        <v>24.34106686968123</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.533858920144986</v>
       </c>
       <c r="M2">
-        <v>38.38728654825979</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>29.61275943821479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.047567154536241</v>
+        <v>5.461308281708281</v>
       </c>
       <c r="D3">
-        <v>2.83313679309916</v>
+        <v>5.333374270639943</v>
       </c>
       <c r="E3">
-        <v>8.46510995241745</v>
+        <v>8.882114336102097</v>
       </c>
       <c r="F3">
-        <v>34.67078538884904</v>
+        <v>36.22249977414256</v>
       </c>
       <c r="G3">
-        <v>1.972259938941108</v>
+        <v>2.109002393494089</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>29.17272021836118</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>58.49481393483808</v>
+        <v>22.59593273057028</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.394908184872763</v>
       </c>
       <c r="M3">
-        <v>35.53381887418423</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.88314956868416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.66895915176667</v>
+        <v>5.279538396924782</v>
       </c>
       <c r="D4">
-        <v>2.549773995599285</v>
+        <v>5.419750605459414</v>
       </c>
       <c r="E4">
-        <v>8.219142713092483</v>
+        <v>8.645300114935511</v>
       </c>
       <c r="F4">
-        <v>32.62071721471609</v>
+        <v>35.34543413485094</v>
       </c>
       <c r="G4">
-        <v>1.986629592764802</v>
+        <v>2.117181434247529</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>28.58859947084844</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>55.53600716412224</v>
+        <v>21.47153240816241</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.313854856298803</v>
       </c>
       <c r="M4">
-        <v>33.7165693603066</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.22561533318736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.51158910376911</v>
+        <v>5.204428497651453</v>
       </c>
       <c r="D5">
-        <v>2.43549070350333</v>
+        <v>5.455557042248739</v>
       </c>
       <c r="E5">
-        <v>8.118504206438386</v>
+        <v>8.5489327392939</v>
       </c>
       <c r="F5">
-        <v>31.78943535226105</v>
+        <v>34.99457209156513</v>
       </c>
       <c r="G5">
-        <v>1.99248000607879</v>
+        <v>2.120553843699903</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>28.35687268929081</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>54.29968355309818</v>
+        <v>21.05231658674033</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.28187434657206</v>
       </c>
       <c r="M5">
-        <v>32.95839900340275</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.55328033138381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.485263516749773</v>
+        <v>5.191896261141348</v>
       </c>
       <c r="D6">
-        <v>2.416576535063969</v>
+        <v>5.461538949146904</v>
       </c>
       <c r="E6">
-        <v>8.101770906060809</v>
+        <v>8.532941873139094</v>
       </c>
       <c r="F6">
-        <v>31.65161366279375</v>
+        <v>34.93670970240555</v>
       </c>
       <c r="G6">
-        <v>1.993451709452279</v>
+        <v>2.121116324761287</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>28.31877355167189</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>54.09249795599089</v>
+        <v>20.98241638903108</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.276626755982005</v>
       </c>
       <c r="M6">
-        <v>32.83140862184449</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.44179477118422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.66684966614361</v>
+        <v>5.278529534584274</v>
       </c>
       <c r="D7">
-        <v>2.5482283549642</v>
+        <v>5.420231063599403</v>
       </c>
       <c r="E7">
-        <v>8.217787016415382</v>
+        <v>8.643999802413832</v>
       </c>
       <c r="F7">
-        <v>32.60949130685061</v>
+        <v>35.34067566307178</v>
       </c>
       <c r="G7">
-        <v>1.986708488894498</v>
+        <v>2.117226750964529</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>28.58544887691088</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>55.51945970396788</v>
+        <v>21.46522543442501</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.313419335705481</v>
       </c>
       <c r="M7">
-        <v>33.70641725792781</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.21653692986606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.441894705606549</v>
+        <v>5.651529961960463</v>
       </c>
       <c r="D8">
-        <v>3.140666543786681</v>
+        <v>5.243327970797754</v>
       </c>
       <c r="E8">
-        <v>8.726050763358597</v>
+        <v>9.13505800282859</v>
       </c>
       <c r="F8">
-        <v>36.87723803901201</v>
+        <v>37.18061865642379</v>
       </c>
       <c r="G8">
-        <v>1.956847340907574</v>
+        <v>2.100397415597155</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>29.81780118066133</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>61.55260003661013</v>
+        <v>23.75016433106122</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.485049625927306</v>
       </c>
       <c r="M8">
-        <v>37.41613574025781</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>28.66665511891679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.892154496617895</v>
+        <v>6.34601693228228</v>
       </c>
       <c r="D9">
-        <v>4.378777312900479</v>
+        <v>4.917449682046597</v>
       </c>
       <c r="E9">
-        <v>10.07111466537239</v>
+        <v>10.09758133065947</v>
       </c>
       <c r="F9">
-        <v>45.55739067026941</v>
+        <v>40.99430109492422</v>
       </c>
       <c r="G9">
-        <v>1.896147590145872</v>
+        <v>2.068288653414675</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>32.44087696010779</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>72.57828790338966</v>
+        <v>27.82386899768371</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.856641226847597</v>
       </c>
       <c r="M9">
-        <v>44.2434601233395</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>35.68514003595664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.949472311636761</v>
+        <v>6.832244327924131</v>
       </c>
       <c r="D10">
-        <v>5.388892045921997</v>
+        <v>4.693650794105313</v>
       </c>
       <c r="E10">
-        <v>11.06182751829402</v>
+        <v>10.80332876578573</v>
       </c>
       <c r="F10">
-        <v>52.3994262462238</v>
+        <v>43.92973097391487</v>
       </c>
       <c r="G10">
-        <v>1.847762204952216</v>
+        <v>2.044897645377415</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>34.50482219362783</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>80.38133730342574</v>
+        <v>30.58865807330833</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.153132011437767</v>
       </c>
       <c r="M10">
-        <v>49.11961709841179</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>41.22619553040306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.44083890150493</v>
+        <v>7.048281616440446</v>
       </c>
       <c r="D11">
-        <v>5.890347272207121</v>
+        <v>4.596273674866429</v>
       </c>
       <c r="E11">
-        <v>11.50226696067956</v>
+        <v>11.12445305888896</v>
       </c>
       <c r="F11">
-        <v>55.71968985877675</v>
+        <v>45.29850090035523</v>
       </c>
       <c r="G11">
-        <v>1.824035671536438</v>
+        <v>2.034207186860565</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>35.47744359962441</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>83.93396973071209</v>
+        <v>31.80217347791156</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.293768743971286</v>
       </c>
       <c r="M11">
-        <v>51.35421039667768</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>43.9191872459303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.63001788946932</v>
+        <v>7.129377011614579</v>
       </c>
       <c r="D12">
-        <v>6.08900475859046</v>
+        <v>4.560167526116142</v>
       </c>
       <c r="E12">
-        <v>11.66816855333754</v>
+        <v>11.2461417493883</v>
       </c>
       <c r="F12">
-        <v>57.02159477676732</v>
+        <v>45.82220963110208</v>
       </c>
       <c r="G12">
-        <v>1.81468461999896</v>
+        <v>2.030142571838744</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>35.8510787440114</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>85.28856673492582</v>
+        <v>32.25586436243086</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.347925770285886</v>
       </c>
       <c r="M12">
-        <v>52.20892803198151</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>44.97594141258433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.58910227111348</v>
+        <v>7.111942746104114</v>
       </c>
       <c r="D13">
-        <v>6.045771942690074</v>
+        <v>4.567906877570995</v>
       </c>
       <c r="E13">
-        <v>11.63246596254866</v>
+        <v>11.21992846621951</v>
       </c>
       <c r="F13">
-        <v>56.73890750327437</v>
+        <v>45.70916859431005</v>
       </c>
       <c r="G13">
-        <v>1.816717372374976</v>
+        <v>2.031018851053484</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>35.77036374387838</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>84.99622976267823</v>
+        <v>32.15840461226392</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.336220654342005</v>
       </c>
       <c r="M13">
-        <v>52.02433972640628</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>44.74644470401052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.45632843403219</v>
+        <v>7.054967452229912</v>
       </c>
       <c r="D14">
-        <v>5.906494731039088</v>
+        <v>4.593286887071467</v>
       </c>
       <c r="E14">
-        <v>11.51592925962723</v>
+        <v>11.13446216642228</v>
       </c>
       <c r="F14">
-        <v>55.82579399859335</v>
+        <v>45.34147473968039</v>
       </c>
       <c r="G14">
-        <v>1.82327458927901</v>
+        <v>2.033873174968726</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>35.50807282221477</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>84.04516134737669</v>
+        <v>31.8396127219798</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.298205735193506</v>
       </c>
       <c r="M14">
-        <v>51.42431188556531</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>44.00529434445144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.37546639751356</v>
+        <v>7.01997669584408</v>
       </c>
       <c r="D15">
-        <v>5.822428905554425</v>
+        <v>4.60893760653397</v>
       </c>
       <c r="E15">
-        <v>11.44445360935403</v>
+        <v>11.08212568429775</v>
       </c>
       <c r="F15">
-        <v>55.27285266091826</v>
+        <v>45.11697369657059</v>
       </c>
       <c r="G15">
-        <v>1.827238849658245</v>
+        <v>2.035619098978317</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>35.34812210085059</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>83.46414713449661</v>
+        <v>31.64359947581725</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.275040305160919</v>
       </c>
       <c r="M15">
-        <v>51.05811958925754</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>43.55659735457796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.917691525235636</v>
+        <v>6.81802405221099</v>
       </c>
       <c r="D16">
-        <v>5.357170882831695</v>
+        <v>4.700114027175535</v>
       </c>
       <c r="E16">
-        <v>11.03288312667455</v>
+        <v>10.78234957997704</v>
       </c>
       <c r="F16">
-        <v>52.18772637417582</v>
+        <v>43.84099609201933</v>
       </c>
       <c r="G16">
-        <v>1.849269233043527</v>
+        <v>2.045594537113511</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>34.44197503991753</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>80.14989642487505</v>
+        <v>30.5085047777254</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.144062780365926</v>
       </c>
       <c r="M16">
-        <v>48.97437828732645</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>41.05458711083921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.640464088328757</v>
+        <v>6.692827056169021</v>
       </c>
       <c r="D17">
-        <v>5.084078690617274</v>
+        <v>4.757262965503536</v>
       </c>
       <c r="E17">
-        <v>10.77812964700186</v>
+        <v>10.59850723530805</v>
       </c>
       <c r="F17">
-        <v>50.35681349301178</v>
+        <v>43.06713537644509</v>
       </c>
       <c r="G17">
-        <v>1.86227512356827</v>
+        <v>2.051695305194907</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>33.89501430614759</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>78.12266694721431</v>
+        <v>29.80118213824378</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.065233873764037</v>
       </c>
       <c r="M17">
-        <v>47.70387766683744</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>39.57086939620444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.481861272574669</v>
+        <v>6.620329528776326</v>
       </c>
       <c r="D18">
-        <v>4.9307357012388</v>
+        <v>4.790540446869967</v>
       </c>
       <c r="E18">
-        <v>10.63059331664612</v>
+        <v>10.49276641057727</v>
       </c>
       <c r="F18">
-        <v>49.32211076750912</v>
+        <v>42.62513171335328</v>
       </c>
       <c r="G18">
-        <v>1.869603670702236</v>
+        <v>2.055200253321755</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>33.5835549034792</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>76.95624736648782</v>
+        <v>29.39015336844278</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.020430569226438</v>
       </c>
       <c r="M18">
-        <v>46.97418116896523</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>38.73272844039741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.428268848756307</v>
+        <v>6.595698855833048</v>
       </c>
       <c r="D19">
-        <v>4.879392975488049</v>
+        <v>4.801874194044727</v>
       </c>
       <c r="E19">
-        <v>10.5804521962176</v>
+        <v>10.45696281048453</v>
       </c>
       <c r="F19">
-        <v>48.97459144955164</v>
+        <v>42.4759950474357</v>
       </c>
       <c r="G19">
-        <v>1.872061702777526</v>
+        <v>2.056386529181859</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>33.47862686408929</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>76.56103530404101</v>
+        <v>29.25025108117763</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.005351257769735</v>
       </c>
       <c r="M19">
-        <v>46.72715376396459</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>38.45128180417777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.669877854865792</v>
+        <v>6.706204809989479</v>
       </c>
       <c r="D20">
-        <v>5.112747585640168</v>
+        <v>4.751136432350216</v>
       </c>
       <c r="E20">
-        <v>10.80534942368685</v>
+        <v>10.61807710484774</v>
       </c>
       <c r="F20">
-        <v>50.54972854254426</v>
+        <v>43.14918973635768</v>
       </c>
       <c r="G20">
-        <v>1.860907066168569</v>
+        <v>2.051046349361208</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>33.95291145963155</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>78.338459226639</v>
+        <v>29.87690857927771</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.0735693023995</v>
       </c>
       <c r="M20">
-        <v>47.83897842620452</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>39.72716403274863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.49522620877638</v>
+        <v>7.071721520201439</v>
       </c>
       <c r="D21">
-        <v>5.947137342891738</v>
+        <v>4.58581003767948</v>
       </c>
       <c r="E21">
-        <v>11.55017700220469</v>
+        <v>11.15956256180521</v>
       </c>
       <c r="F21">
-        <v>56.09263330089696</v>
+        <v>45.44932352586591</v>
       </c>
       <c r="G21">
-        <v>1.821359760282969</v>
+        <v>2.033035316328226</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>35.58496498845328</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>84.32416960379969</v>
+        <v>31.93340364129834</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.309346513922871</v>
       </c>
       <c r="M21">
-        <v>51.600259500545</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>44.22185707793909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.05418402217145</v>
+        <v>7.30647736857008</v>
       </c>
       <c r="D22">
-        <v>6.546005150607201</v>
+        <v>4.48233473737605</v>
       </c>
       <c r="E22">
-        <v>12.03229268430012</v>
+        <v>11.51402007535261</v>
       </c>
       <c r="F22">
-        <v>59.98838113469706</v>
+        <v>46.98441152044499</v>
       </c>
       <c r="G22">
-        <v>1.793272175091666</v>
+        <v>2.02116317458387</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>36.68297639285071</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>88.29806541742653</v>
+        <v>33.24369739166021</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.468740424895238</v>
       </c>
       <c r="M22">
-        <v>54.1135665054495</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>47.38586526854041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.7533041121928</v>
+        <v>7.181547538171973</v>
       </c>
       <c r="D23">
-        <v>6.220171041007585</v>
+        <v>4.537087067793338</v>
       </c>
       <c r="E23">
-        <v>11.77514120035727</v>
+        <v>11.32475213472835</v>
       </c>
       <c r="F23">
-        <v>57.87709453609347</v>
+        <v>46.16194672736659</v>
       </c>
       <c r="G23">
-        <v>1.808524962926186</v>
+        <v>2.027512261221196</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>36.09387904484858</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>86.16728811872292</v>
+        <v>32.54726417065716</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.38315475440131</v>
       </c>
       <c r="M23">
-        <v>52.76421603697957</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>45.67060660152688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.656577574772209</v>
+        <v>6.700158349286027</v>
       </c>
       <c r="D24">
-        <v>5.099775159449791</v>
+        <v>4.753904933539197</v>
       </c>
       <c r="E24">
-        <v>10.79304675242158</v>
+        <v>10.60922971957136</v>
       </c>
       <c r="F24">
-        <v>50.46245684899496</v>
+        <v>43.1120839707853</v>
       </c>
       <c r="G24">
-        <v>1.861526019995159</v>
+        <v>2.051339749298428</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>33.92672685974139</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>78.24090306453712</v>
+        <v>29.84268633434986</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.069799251564405</v>
       </c>
       <c r="M24">
-        <v>47.77789751557791</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>39.6564577431413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.504349530113837</v>
+        <v>6.162315634593863</v>
       </c>
       <c r="D25">
-        <v>4.031205130563344</v>
+        <v>5.003131217736006</v>
       </c>
       <c r="E25">
-        <v>9.694259083755039</v>
+        <v>9.837460680216067</v>
       </c>
       <c r="F25">
-        <v>43.1537539785645</v>
+        <v>39.94014175707666</v>
       </c>
       <c r="G25">
-        <v>1.913008307212299</v>
+        <v>2.076912085143907</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>31.7082720740578</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>69.66511189189258</v>
+        <v>26.76349427175812</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.752174297896969</v>
       </c>
       <c r="M25">
-        <v>42.43299317622699</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>33.74075442703628</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_line/loading_percent.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.750187311740352</v>
+        <v>7.553218057833775</v>
       </c>
       <c r="D2">
-        <v>5.196749386847245</v>
+        <v>8.487816639668129</v>
       </c>
       <c r="E2">
-        <v>9.268181751283496</v>
+        <v>12.08984770114114</v>
       </c>
       <c r="F2">
-        <v>37.69297570188094</v>
+        <v>42.74871832541115</v>
       </c>
       <c r="G2">
-        <v>2.095909219184557</v>
+        <v>3.731182238444394</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>30.16539699505152</v>
+        <v>36.85582234438661</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>24.34106686968123</v>
+        <v>21.62106131429388</v>
       </c>
       <c r="L2">
-        <v>6.533858920144986</v>
+        <v>9.908629492983968</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.461308281708281</v>
+        <v>7.516751532984305</v>
       </c>
       <c r="D3">
-        <v>5.333374270639943</v>
+        <v>8.528710039019513</v>
       </c>
       <c r="E3">
-        <v>8.882114336102097</v>
+        <v>12.05712619318125</v>
       </c>
       <c r="F3">
-        <v>36.22249977414256</v>
+        <v>42.61672848073314</v>
       </c>
       <c r="G3">
-        <v>2.109002393494089</v>
+        <v>3.735603616638222</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29.17272021836118</v>
+        <v>36.80845167361132</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>22.59593273057028</v>
+        <v>21.23929134009351</v>
       </c>
       <c r="L3">
-        <v>6.394908184872763</v>
+        <v>9.916168754522779</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.279538396924782</v>
+        <v>7.495676701590162</v>
       </c>
       <c r="D4">
-        <v>5.419750605459414</v>
+        <v>8.555047374885385</v>
       </c>
       <c r="E4">
-        <v>8.645300114935511</v>
+        <v>12.03975304369503</v>
       </c>
       <c r="F4">
-        <v>35.34543413485094</v>
+        <v>42.54924594592943</v>
       </c>
       <c r="G4">
-        <v>2.117181434247529</v>
+        <v>3.738455142323995</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.58859947084844</v>
+        <v>36.79009882933705</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>21.47153240816241</v>
+        <v>21.00733586716919</v>
       </c>
       <c r="L4">
-        <v>6.313854856298803</v>
+        <v>9.922681130767241</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.204428497651453</v>
+        <v>7.487426128552534</v>
       </c>
       <c r="D5">
-        <v>5.455557042248739</v>
+        <v>8.566089227409909</v>
       </c>
       <c r="E5">
-        <v>8.5489327392939</v>
+        <v>12.03336049992926</v>
       </c>
       <c r="F5">
-        <v>34.99457209156513</v>
+        <v>42.52515703174032</v>
       </c>
       <c r="G5">
-        <v>2.120553843699903</v>
+        <v>3.739651702055775</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.35687268929081</v>
+        <v>36.78531066597314</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>21.05231658674033</v>
+        <v>20.91355990627451</v>
       </c>
       <c r="L5">
-        <v>6.28187434657206</v>
+        <v>9.925807709469817</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.191896261141348</v>
+        <v>7.486076705806541</v>
       </c>
       <c r="D6">
-        <v>5.461538949146904</v>
+        <v>8.567941398998602</v>
       </c>
       <c r="E6">
-        <v>8.532941873139094</v>
+        <v>12.03234061998205</v>
       </c>
       <c r="F6">
-        <v>34.93670970240555</v>
+        <v>42.5213630264074</v>
       </c>
       <c r="G6">
-        <v>2.121116324761287</v>
+        <v>3.739852480261507</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28.31877355167189</v>
+        <v>36.78467782388999</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>20.98241638903108</v>
+        <v>20.89803747146302</v>
       </c>
       <c r="L6">
-        <v>6.276626755982005</v>
+        <v>9.926355400551373</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.278529534584274</v>
+        <v>7.495564055973208</v>
       </c>
       <c r="D7">
-        <v>5.420231063599403</v>
+        <v>8.555195037005918</v>
       </c>
       <c r="E7">
-        <v>8.643999802413832</v>
+        <v>12.03966404495347</v>
       </c>
       <c r="F7">
-        <v>35.34067566307178</v>
+        <v>42.54890726633077</v>
       </c>
       <c r="G7">
-        <v>2.117226750964529</v>
+        <v>3.738471139502274</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.58544887691088</v>
+        <v>36.79002337219057</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>21.46522543442501</v>
+        <v>21.00606797089776</v>
       </c>
       <c r="L7">
-        <v>6.313419335705481</v>
+        <v>9.92272138400163</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.651529961960463</v>
+        <v>7.540375470138487</v>
       </c>
       <c r="D8">
-        <v>5.243327970797754</v>
+        <v>8.501661817917693</v>
       </c>
       <c r="E8">
-        <v>9.13505800282859</v>
+        <v>12.0780036242926</v>
       </c>
       <c r="F8">
-        <v>37.18061865642379</v>
+        <v>42.70039592723249</v>
       </c>
       <c r="G8">
-        <v>2.100397415597155</v>
+        <v>3.732678428175805</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29.81780118066133</v>
+        <v>36.83725718788548</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>23.75016433106122</v>
+        <v>21.48899642512682</v>
       </c>
       <c r="L8">
-        <v>6.485049625927306</v>
+        <v>9.910837707548779</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.34601693228228</v>
+        <v>7.638377660464083</v>
       </c>
       <c r="D9">
-        <v>4.917449682046597</v>
+        <v>8.406421078400518</v>
       </c>
       <c r="E9">
-        <v>10.09758133065947</v>
+        <v>12.17456209129029</v>
       </c>
       <c r="F9">
-        <v>40.99430109492422</v>
+        <v>43.10479835411721</v>
       </c>
       <c r="G9">
-        <v>2.068288653414675</v>
+        <v>3.722397612497694</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>32.44087696010779</v>
+        <v>37.01529371850945</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>27.82386899768371</v>
+        <v>22.44976457808055</v>
       </c>
       <c r="L9">
-        <v>6.856641226847597</v>
+        <v>9.902508791858528</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.832244327924131</v>
+        <v>7.716111852337705</v>
       </c>
       <c r="D10">
-        <v>4.693650794105313</v>
+        <v>8.342368416084263</v>
       </c>
       <c r="E10">
-        <v>10.80332876578573</v>
+        <v>12.25823672497785</v>
       </c>
       <c r="F10">
-        <v>43.92973097391487</v>
+        <v>43.46670058373367</v>
       </c>
       <c r="G10">
-        <v>2.044897645377415</v>
+        <v>3.715492592150843</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>34.50482219362783</v>
+        <v>37.19834501413722</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>30.58865807330833</v>
+        <v>23.15651310963117</v>
       </c>
       <c r="L10">
-        <v>7.153132011437767</v>
+        <v>9.905556133889835</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.048281616440446</v>
+        <v>7.752619234597866</v>
       </c>
       <c r="D11">
-        <v>4.596273674866429</v>
+        <v>8.314511973946571</v>
       </c>
       <c r="E11">
-        <v>11.12445305888896</v>
+        <v>12.29899055857364</v>
       </c>
       <c r="F11">
-        <v>45.29850090035523</v>
+        <v>43.64517344343926</v>
       </c>
       <c r="G11">
-        <v>2.034207186860565</v>
+        <v>3.712490096693397</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>35.47744359962441</v>
+        <v>37.29294769196509</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>31.80217347791156</v>
+        <v>23.47669755964242</v>
       </c>
       <c r="L11">
-        <v>7.293768743971286</v>
+        <v>9.908937885406074</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.129377011614579</v>
+        <v>7.766599486815084</v>
       </c>
       <c r="D12">
-        <v>4.560167526116142</v>
+        <v>8.304147635654877</v>
       </c>
       <c r="E12">
-        <v>11.2461417493883</v>
+        <v>12.31480225537773</v>
       </c>
       <c r="F12">
-        <v>45.82220963110208</v>
+        <v>43.71471996785385</v>
       </c>
       <c r="G12">
-        <v>2.030142571838744</v>
+        <v>3.711372910636965</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>35.8510787440114</v>
+        <v>37.33039465568663</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>32.25586436243086</v>
+        <v>23.5976327208596</v>
       </c>
       <c r="L12">
-        <v>7.347925770285886</v>
+        <v>9.910505510422372</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.111942746104114</v>
+        <v>7.763581810987152</v>
       </c>
       <c r="D13">
-        <v>4.567906877570995</v>
+        <v>8.306371584166998</v>
       </c>
       <c r="E13">
-        <v>11.21992846621951</v>
+        <v>12.31138019138794</v>
       </c>
       <c r="F13">
-        <v>45.70916859431005</v>
+        <v>43.69965507265297</v>
       </c>
       <c r="G13">
-        <v>2.031018851053484</v>
+        <v>3.711612638558992</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>35.77036374387838</v>
+        <v>37.32225773147631</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>32.15840461226392</v>
+        <v>23.57160291822204</v>
       </c>
       <c r="L13">
-        <v>7.336220654342005</v>
+        <v>9.910155129138081</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.054967452229912</v>
+        <v>7.753766330524788</v>
       </c>
       <c r="D14">
-        <v>4.593286887071467</v>
+        <v>8.313655599864106</v>
       </c>
       <c r="E14">
-        <v>11.13446216642228</v>
+        <v>12.30028384466995</v>
       </c>
       <c r="F14">
-        <v>45.34147473968039</v>
+        <v>43.65085591564321</v>
       </c>
       <c r="G14">
-        <v>2.033873174968726</v>
+        <v>3.71239778923642</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>35.50807282221477</v>
+        <v>37.29599599602799</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>31.8396127219798</v>
+        <v>23.48665389501808</v>
       </c>
       <c r="L14">
-        <v>7.298205735193506</v>
+        <v>9.909061102505975</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.01997669584408</v>
+        <v>7.747774069620752</v>
       </c>
       <c r="D15">
-        <v>4.60893760653397</v>
+        <v>8.318141271296147</v>
       </c>
       <c r="E15">
-        <v>11.08212568429775</v>
+        <v>12.29353614437225</v>
       </c>
       <c r="F15">
-        <v>45.11697369657059</v>
+        <v>43.62121973317802</v>
       </c>
       <c r="G15">
-        <v>2.035619098978317</v>
+        <v>3.712881290239451</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>35.34812210085059</v>
+        <v>37.28012104610329</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>31.64359947581725</v>
+        <v>23.43457604074062</v>
       </c>
       <c r="L15">
-        <v>7.275040305160919</v>
+        <v>9.90842835877932</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.81802405221099</v>
+        <v>7.713748294780211</v>
       </c>
       <c r="D16">
-        <v>4.700114027175535</v>
+        <v>8.344214687012425</v>
       </c>
       <c r="E16">
-        <v>10.78234957997704</v>
+        <v>12.25562684839021</v>
       </c>
       <c r="F16">
-        <v>43.84099609201933</v>
+        <v>43.45531322359215</v>
       </c>
       <c r="G16">
-        <v>2.045594537113511</v>
+        <v>3.715691589846709</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>34.44197503991753</v>
+        <v>37.19239003528993</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>30.5085047777254</v>
+        <v>23.13555119943113</v>
       </c>
       <c r="L16">
-        <v>7.144062780365926</v>
+        <v>9.905375293532707</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.692827056169021</v>
+        <v>7.693161657359639</v>
       </c>
       <c r="D17">
-        <v>4.757262965503536</v>
+        <v>8.360538094717576</v>
       </c>
       <c r="E17">
-        <v>10.59850723530805</v>
+        <v>12.23305436877426</v>
       </c>
       <c r="F17">
-        <v>43.06713537644509</v>
+        <v>43.35706181137156</v>
       </c>
       <c r="G17">
-        <v>2.051695305194907</v>
+        <v>3.717451024172523</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>33.89501430614759</v>
+        <v>37.14146845599966</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>29.80118213824378</v>
+        <v>22.95168272124364</v>
       </c>
       <c r="L17">
-        <v>7.065233873764037</v>
+        <v>9.904013540674891</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.620329528776326</v>
+        <v>7.681429164437336</v>
       </c>
       <c r="D18">
-        <v>4.790540446869967</v>
+        <v>8.370047498404459</v>
       </c>
       <c r="E18">
-        <v>10.49276641057727</v>
+        <v>12.22032495310592</v>
       </c>
       <c r="F18">
-        <v>42.62513171335328</v>
+        <v>43.30185498383792</v>
       </c>
       <c r="G18">
-        <v>2.055200253321755</v>
+        <v>3.71847606150176</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>33.5835549034792</v>
+        <v>37.11324686858443</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>29.39015336844278</v>
+        <v>22.84580925463607</v>
       </c>
       <c r="L18">
-        <v>7.020430569226438</v>
+        <v>9.903418128194314</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.595698855833048</v>
+        <v>7.677475633322143</v>
       </c>
       <c r="D19">
-        <v>4.801874194044727</v>
+        <v>8.37328793403803</v>
       </c>
       <c r="E19">
-        <v>10.45696281048453</v>
+        <v>12.21605878564608</v>
       </c>
       <c r="F19">
-        <v>42.4759950474357</v>
+        <v>43.2833877721908</v>
       </c>
       <c r="G19">
-        <v>2.056386529181859</v>
+        <v>3.718825368430512</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>33.47862686408929</v>
+        <v>37.10387496332872</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>29.25025108117763</v>
+        <v>22.80994600190505</v>
       </c>
       <c r="L19">
-        <v>7.005351257769735</v>
+        <v>9.90324878692717</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.706204809989479</v>
+        <v>7.695341986327024</v>
       </c>
       <c r="D20">
-        <v>4.751136432350216</v>
+        <v>8.358787957237784</v>
       </c>
       <c r="E20">
-        <v>10.61807710484774</v>
+        <v>12.23543104693445</v>
       </c>
       <c r="F20">
-        <v>43.14918973635768</v>
+        <v>43.36738598861324</v>
       </c>
       <c r="G20">
-        <v>2.051046349361208</v>
+        <v>3.717262379036129</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>33.95291145963155</v>
+        <v>37.14677873683762</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>29.87690857927771</v>
+        <v>22.97126886441942</v>
       </c>
       <c r="L20">
-        <v>7.0735693023995</v>
+        <v>9.904139060629699</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.071721520201439</v>
+        <v>7.756645222635463</v>
       </c>
       <c r="D21">
-        <v>4.58581003767948</v>
+        <v>8.311511105901111</v>
       </c>
       <c r="E21">
-        <v>11.15956256180521</v>
+        <v>12.3035328860499</v>
       </c>
       <c r="F21">
-        <v>45.44932352586591</v>
+        <v>43.66513638488195</v>
       </c>
       <c r="G21">
-        <v>2.033035316328226</v>
+        <v>3.712166635378074</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>35.58496498845328</v>
+        <v>37.30366572216623</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>31.93340364129834</v>
+        <v>23.51161488771192</v>
       </c>
       <c r="L21">
-        <v>7.309346513922871</v>
+        <v>9.909374654953155</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.30647736857008</v>
+        <v>7.79761362413586</v>
       </c>
       <c r="D22">
-        <v>4.48233473737605</v>
+        <v>8.281687179844383</v>
       </c>
       <c r="E22">
-        <v>11.51402007535261</v>
+        <v>12.3502471173422</v>
       </c>
       <c r="F22">
-        <v>46.98441152044499</v>
+        <v>43.87115795895689</v>
       </c>
       <c r="G22">
-        <v>2.02116317458387</v>
+        <v>3.7089515802298</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>36.68297639285071</v>
+        <v>37.41565552299684</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>33.24369739166021</v>
+        <v>23.86289265096975</v>
       </c>
       <c r="L22">
-        <v>7.468740424895238</v>
+        <v>9.914469363407159</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.181547538171973</v>
+        <v>7.775668418244086</v>
       </c>
       <c r="D23">
-        <v>4.537087067793338</v>
+        <v>8.297506461655386</v>
       </c>
       <c r="E23">
-        <v>11.32475213472835</v>
+        <v>12.32511571570237</v>
       </c>
       <c r="F23">
-        <v>46.16194672736659</v>
+        <v>43.76016526108278</v>
       </c>
       <c r="G23">
-        <v>2.027512261221196</v>
+        <v>3.710657011690709</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>36.09387904484858</v>
+        <v>37.35502215685991</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>32.54726417065716</v>
+        <v>23.67561901179029</v>
       </c>
       <c r="L23">
-        <v>7.38315475440131</v>
+        <v>9.91159716381182</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.700158349286027</v>
+        <v>7.694355937973583</v>
       </c>
       <c r="D24">
-        <v>4.753904933539197</v>
+        <v>8.359578805485267</v>
       </c>
       <c r="E24">
-        <v>10.60922971957136</v>
+        <v>12.2343557783096</v>
       </c>
       <c r="F24">
-        <v>43.1120839707853</v>
+        <v>43.36271444155352</v>
       </c>
       <c r="G24">
-        <v>2.051339749298428</v>
+        <v>3.717347623394977</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>33.92672685974139</v>
+        <v>37.14437467572475</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>29.84268633434986</v>
+        <v>22.96241447379619</v>
       </c>
       <c r="L24">
-        <v>7.069799251564405</v>
+        <v>9.904081729115768</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.162315634593863</v>
+        <v>7.610825582555254</v>
       </c>
       <c r="D25">
-        <v>5.003131217736006</v>
+        <v>8.431145459485622</v>
       </c>
       <c r="E25">
-        <v>9.837460680216067</v>
+        <v>12.1461802348498</v>
       </c>
       <c r="F25">
-        <v>39.94014175707666</v>
+        <v>42.98395412061892</v>
       </c>
       <c r="G25">
-        <v>2.076912085143907</v>
+        <v>3.725064327455917</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>31.7082720740578</v>
+        <v>36.95795716698232</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>26.76349427175812</v>
+        <v>22.18916664885925</v>
       </c>
       <c r="L25">
-        <v>6.752174297896969</v>
+        <v>9.903154333869644</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_line/loading_percent.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.553218057833775</v>
+        <v>5.750187311740497</v>
       </c>
       <c r="D2">
-        <v>8.487816639668129</v>
+        <v>5.196749386847127</v>
       </c>
       <c r="E2">
-        <v>12.08984770114114</v>
+        <v>9.268181751283551</v>
       </c>
       <c r="F2">
-        <v>42.74871832541115</v>
+        <v>37.69297570188079</v>
       </c>
       <c r="G2">
-        <v>3.731182238444394</v>
+        <v>2.095909219184825</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.85582234438661</v>
+        <v>30.16539699505142</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>21.62106131429388</v>
+        <v>24.34106686968132</v>
       </c>
       <c r="L2">
-        <v>9.908629492983968</v>
+        <v>6.533858920144997</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.516751532984305</v>
+        <v>5.461308281708281</v>
       </c>
       <c r="D3">
-        <v>8.528710039019513</v>
+        <v>5.333374270639937</v>
       </c>
       <c r="E3">
-        <v>12.05712619318125</v>
+        <v>8.882114336102077</v>
       </c>
       <c r="F3">
-        <v>42.61672848073314</v>
+        <v>36.22249977414253</v>
       </c>
       <c r="G3">
-        <v>3.735603616638222</v>
+        <v>2.109002393494226</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>36.80845167361132</v>
+        <v>29.17272021836115</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>21.23929134009351</v>
+        <v>22.59593273057028</v>
       </c>
       <c r="L3">
-        <v>9.916168754522779</v>
+        <v>6.394908184872751</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.495676701590162</v>
+        <v>5.279538396924835</v>
       </c>
       <c r="D4">
-        <v>8.555047374885385</v>
+        <v>5.419750605459532</v>
       </c>
       <c r="E4">
-        <v>12.03975304369503</v>
+        <v>8.645300114935591</v>
       </c>
       <c r="F4">
-        <v>42.54924594592943</v>
+        <v>35.34543413485094</v>
       </c>
       <c r="G4">
-        <v>3.738455142323995</v>
+        <v>2.117181434247527</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>36.79009882933705</v>
+        <v>28.58859947084847</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>21.00733586716919</v>
+        <v>21.47153240816241</v>
       </c>
       <c r="L4">
-        <v>9.922681130767241</v>
+        <v>6.313854856298881</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.487426128552534</v>
+        <v>5.204428497651235</v>
       </c>
       <c r="D5">
-        <v>8.566089227409909</v>
+        <v>5.455557042248818</v>
       </c>
       <c r="E5">
-        <v>12.03336049992926</v>
+        <v>8.54893273929388</v>
       </c>
       <c r="F5">
-        <v>42.52515703174032</v>
+        <v>34.994572091565</v>
       </c>
       <c r="G5">
-        <v>3.739651702055775</v>
+        <v>2.120553843699766</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>36.78531066597314</v>
+        <v>28.35687268929068</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>20.91355990627451</v>
+        <v>21.05231658674031</v>
       </c>
       <c r="L5">
-        <v>9.925807709469817</v>
+        <v>6.281874346572154</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.486076705806541</v>
+        <v>5.191896261141364</v>
       </c>
       <c r="D6">
-        <v>8.567941398998602</v>
+        <v>5.461538949146763</v>
       </c>
       <c r="E6">
-        <v>12.03234061998205</v>
+        <v>8.53294187313913</v>
       </c>
       <c r="F6">
-        <v>42.5213630264074</v>
+        <v>34.93670970240547</v>
       </c>
       <c r="G6">
-        <v>3.739852480261507</v>
+        <v>2.121116324761288</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>36.78467782388999</v>
+        <v>28.31877355167173</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>20.89803747146302</v>
+        <v>20.9824163890311</v>
       </c>
       <c r="L6">
-        <v>9.926355400551373</v>
+        <v>6.276626755982074</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.495564055973208</v>
+        <v>5.278529534584294</v>
       </c>
       <c r="D7">
-        <v>8.555195037005918</v>
+        <v>5.420231063599541</v>
       </c>
       <c r="E7">
-        <v>12.03966404495347</v>
+        <v>8.643999802413886</v>
       </c>
       <c r="F7">
-        <v>42.54890726633077</v>
+        <v>35.34067566307198</v>
       </c>
       <c r="G7">
-        <v>3.738471139502274</v>
+        <v>2.117226750964394</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>36.79002337219057</v>
+        <v>28.58544887691107</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>21.00606797089776</v>
+        <v>21.46522543442495</v>
       </c>
       <c r="L7">
-        <v>9.92272138400163</v>
+        <v>6.313419335705532</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.540375470138487</v>
+        <v>5.651529961960508</v>
       </c>
       <c r="D8">
-        <v>8.501661817917693</v>
+        <v>5.243327970797576</v>
       </c>
       <c r="E8">
-        <v>12.0780036242926</v>
+        <v>9.135058002828556</v>
       </c>
       <c r="F8">
-        <v>42.70039592723249</v>
+        <v>37.18061865642371</v>
       </c>
       <c r="G8">
-        <v>3.732678428175805</v>
+        <v>2.100397415597287</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>36.83725718788548</v>
+        <v>29.81780118066125</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>21.48899642512682</v>
+        <v>23.75016433106126</v>
       </c>
       <c r="L8">
-        <v>9.910837707548779</v>
+        <v>6.485049625927308</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.638377660464083</v>
+        <v>6.346016932282235</v>
       </c>
       <c r="D9">
-        <v>8.406421078400518</v>
+        <v>4.917449682046704</v>
       </c>
       <c r="E9">
-        <v>12.17456209129029</v>
+        <v>10.09758133065943</v>
       </c>
       <c r="F9">
-        <v>43.10479835411721</v>
+        <v>40.9943010949241</v>
       </c>
       <c r="G9">
-        <v>3.722397612497694</v>
+        <v>2.068288653414804</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>37.01529371850945</v>
+        <v>32.44087696010768</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22.44976457808055</v>
+        <v>27.82386899768367</v>
       </c>
       <c r="L9">
-        <v>9.902508791858528</v>
+        <v>6.856641226847593</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.716111852337705</v>
+        <v>6.832244327924197</v>
       </c>
       <c r="D10">
-        <v>8.342368416084263</v>
+        <v>4.693650794105421</v>
       </c>
       <c r="E10">
-        <v>12.25823672497785</v>
+        <v>10.80332876578575</v>
       </c>
       <c r="F10">
-        <v>43.46670058373367</v>
+        <v>43.92973097391489</v>
       </c>
       <c r="G10">
-        <v>3.715492592150843</v>
+        <v>2.044897645377422</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>37.19834501413722</v>
+        <v>34.50482219362786</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.15651310963117</v>
+        <v>30.58865807330831</v>
       </c>
       <c r="L10">
-        <v>9.905556133889835</v>
+        <v>7.153132011437751</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.752619234597866</v>
+        <v>7.048281616440448</v>
       </c>
       <c r="D11">
-        <v>8.314511973946571</v>
+        <v>4.596273674866615</v>
       </c>
       <c r="E11">
-        <v>12.29899055857364</v>
+        <v>11.12445305888893</v>
       </c>
       <c r="F11">
-        <v>43.64517344343926</v>
+        <v>45.29850090035522</v>
       </c>
       <c r="G11">
-        <v>3.712490096693397</v>
+        <v>2.034207186860963</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>37.29294769196509</v>
+        <v>35.47744359962441</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.47669755964242</v>
+        <v>31.80217347791154</v>
       </c>
       <c r="L11">
-        <v>9.908937885406074</v>
+        <v>7.293768743971254</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.766599486815084</v>
+        <v>7.129377011614613</v>
       </c>
       <c r="D12">
-        <v>8.304147635654877</v>
+        <v>4.560167526116187</v>
       </c>
       <c r="E12">
-        <v>12.31480225537773</v>
+        <v>11.24614174938833</v>
       </c>
       <c r="F12">
-        <v>43.71471996785385</v>
+        <v>45.82220963110203</v>
       </c>
       <c r="G12">
-        <v>3.711372910636965</v>
+        <v>2.030142571838741</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>37.33039465568663</v>
+        <v>35.8510787440114</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>23.5976327208596</v>
+        <v>32.25586436243081</v>
       </c>
       <c r="L12">
-        <v>9.910505510422372</v>
+        <v>7.347925770285901</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.763581810987152</v>
+        <v>7.111942746104114</v>
       </c>
       <c r="D13">
-        <v>8.306371584166998</v>
+        <v>4.567906877570973</v>
       </c>
       <c r="E13">
-        <v>12.31138019138794</v>
+        <v>11.21992846621952</v>
       </c>
       <c r="F13">
-        <v>43.69965507265297</v>
+        <v>45.70916859431026</v>
       </c>
       <c r="G13">
-        <v>3.711612638558992</v>
+        <v>2.031018851053489</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>37.32225773147631</v>
+        <v>35.77036374387853</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.57160291822204</v>
+        <v>32.15840461226405</v>
       </c>
       <c r="L13">
-        <v>9.910155129138081</v>
+        <v>7.336220654341992</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.753766330524788</v>
+        <v>7.054967452229848</v>
       </c>
       <c r="D14">
-        <v>8.313655599864106</v>
+        <v>4.593286887071427</v>
       </c>
       <c r="E14">
-        <v>12.30028384466995</v>
+        <v>11.13446216642227</v>
       </c>
       <c r="F14">
-        <v>43.65085591564321</v>
+        <v>45.34147473968041</v>
       </c>
       <c r="G14">
-        <v>3.71239778923642</v>
+        <v>2.033873174968854</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>37.29599599602799</v>
+        <v>35.50807282221477</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.48665389501808</v>
+        <v>31.83961272197982</v>
       </c>
       <c r="L14">
-        <v>9.909061102505975</v>
+        <v>7.298205735193515</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.747774069620752</v>
+        <v>7.019976695844099</v>
       </c>
       <c r="D15">
-        <v>8.318141271296147</v>
+        <v>4.608937606533951</v>
       </c>
       <c r="E15">
-        <v>12.29353614437225</v>
+        <v>11.08212568429774</v>
       </c>
       <c r="F15">
-        <v>43.62121973317802</v>
+        <v>45.11697369657059</v>
       </c>
       <c r="G15">
-        <v>3.712881290239451</v>
+        <v>2.03561909897832</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>37.28012104610329</v>
+        <v>35.3481221008506</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>23.43457604074062</v>
+        <v>31.64359947581724</v>
       </c>
       <c r="L15">
-        <v>9.90842835877932</v>
+        <v>7.27504030516087</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.713748294780211</v>
+        <v>6.818024052210996</v>
       </c>
       <c r="D16">
-        <v>8.344214687012425</v>
+        <v>4.700114027175643</v>
       </c>
       <c r="E16">
-        <v>12.25562684839021</v>
+        <v>10.78234957997706</v>
       </c>
       <c r="F16">
-        <v>43.45531322359215</v>
+        <v>43.84099609201937</v>
       </c>
       <c r="G16">
-        <v>3.715691589846709</v>
+        <v>2.045594537113647</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>37.19239003528993</v>
+        <v>34.44197503991759</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.13555119943113</v>
+        <v>30.50850477772534</v>
       </c>
       <c r="L16">
-        <v>9.905375293532707</v>
+        <v>7.14406278036593</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.693161657359639</v>
+        <v>6.692827056168987</v>
       </c>
       <c r="D17">
-        <v>8.360538094717576</v>
+        <v>4.757262965503529</v>
       </c>
       <c r="E17">
-        <v>12.23305436877426</v>
+        <v>10.59850723530802</v>
       </c>
       <c r="F17">
-        <v>43.35706181137156</v>
+        <v>43.0671353764451</v>
       </c>
       <c r="G17">
-        <v>3.717451024172523</v>
+        <v>2.051695305194638</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>37.14146845599966</v>
+        <v>33.89501430614757</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.95168272124364</v>
+        <v>29.80118213824386</v>
       </c>
       <c r="L17">
-        <v>9.904013540674891</v>
+        <v>7.065233873764012</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.681429164437336</v>
+        <v>6.620329528776205</v>
       </c>
       <c r="D18">
-        <v>8.370047498404459</v>
+        <v>4.790540446869941</v>
       </c>
       <c r="E18">
-        <v>12.22032495310592</v>
+        <v>10.49276641057726</v>
       </c>
       <c r="F18">
-        <v>43.30185498383792</v>
+        <v>42.62513171335311</v>
       </c>
       <c r="G18">
-        <v>3.71847606150176</v>
+        <v>2.055200253321353</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>37.11324686858443</v>
+        <v>33.58355490347903</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.84580925463607</v>
+        <v>29.39015336844282</v>
       </c>
       <c r="L18">
-        <v>9.903418128194314</v>
+        <v>7.020430569226437</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.677475633322143</v>
+        <v>6.595698855833092</v>
       </c>
       <c r="D19">
-        <v>8.37328793403803</v>
+        <v>4.801874194044728</v>
       </c>
       <c r="E19">
-        <v>12.21605878564608</v>
+        <v>10.45696281048453</v>
       </c>
       <c r="F19">
-        <v>43.2833877721908</v>
+        <v>42.47599504743567</v>
       </c>
       <c r="G19">
-        <v>3.718825368430512</v>
+        <v>2.056386529182127</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>37.10387496332872</v>
+        <v>33.47862686408931</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.80994600190505</v>
+        <v>29.25025108117768</v>
       </c>
       <c r="L19">
-        <v>9.90324878692717</v>
+        <v>7.005351257769727</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.695341986327024</v>
+        <v>6.706204809989435</v>
       </c>
       <c r="D20">
-        <v>8.358787957237784</v>
+        <v>4.751136432350194</v>
       </c>
       <c r="E20">
-        <v>12.23543104693445</v>
+        <v>10.61807710484773</v>
       </c>
       <c r="F20">
-        <v>43.36738598861324</v>
+        <v>43.14918973635758</v>
       </c>
       <c r="G20">
-        <v>3.717262379036129</v>
+        <v>2.051046349361471</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>37.14677873683762</v>
+        <v>33.95291145963149</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>22.97126886441942</v>
+        <v>29.87690857927764</v>
       </c>
       <c r="L20">
-        <v>9.904139060629699</v>
+        <v>7.073569302399515</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.756645222635463</v>
+        <v>7.07172152020146</v>
       </c>
       <c r="D21">
-        <v>8.311511105901111</v>
+        <v>4.585810037679554</v>
       </c>
       <c r="E21">
-        <v>12.3035328860499</v>
+        <v>11.15956256180521</v>
       </c>
       <c r="F21">
-        <v>43.66513638488195</v>
+        <v>45.44932352586581</v>
       </c>
       <c r="G21">
-        <v>3.712166635378074</v>
+        <v>2.033035316328221</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>37.30366572216623</v>
+        <v>35.58496498845326</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.51161488771192</v>
+        <v>31.93340364129828</v>
       </c>
       <c r="L21">
-        <v>9.909374654953155</v>
+        <v>7.30934651392283</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.79761362413586</v>
+        <v>7.306477368570115</v>
       </c>
       <c r="D22">
-        <v>8.281687179844383</v>
+        <v>4.482334737376128</v>
       </c>
       <c r="E22">
-        <v>12.3502471173422</v>
+        <v>11.51402007535263</v>
       </c>
       <c r="F22">
-        <v>43.87115795895689</v>
+        <v>46.98441152044525</v>
       </c>
       <c r="G22">
-        <v>3.7089515802298</v>
+        <v>2.021163174583738</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>37.41565552299684</v>
+        <v>36.68297639285091</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.86289265096975</v>
+        <v>33.24369739166027</v>
       </c>
       <c r="L22">
-        <v>9.914469363407159</v>
+        <v>7.468740424895218</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.775668418244086</v>
+        <v>7.181547538171987</v>
       </c>
       <c r="D23">
-        <v>8.297506461655386</v>
+        <v>4.537087067793295</v>
       </c>
       <c r="E23">
-        <v>12.32511571570237</v>
+        <v>11.32475213472835</v>
       </c>
       <c r="F23">
-        <v>43.76016526108278</v>
+        <v>46.16194672736651</v>
       </c>
       <c r="G23">
-        <v>3.710657011690709</v>
+        <v>2.027512261221325</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>37.35502215685991</v>
+        <v>36.09387904484853</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.67561901179029</v>
+        <v>32.54726417065717</v>
       </c>
       <c r="L23">
-        <v>9.91159716381182</v>
+        <v>7.38315475440132</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.694355937973583</v>
+        <v>6.700158349286067</v>
       </c>
       <c r="D24">
-        <v>8.359578805485267</v>
+        <v>4.753904933539218</v>
       </c>
       <c r="E24">
-        <v>12.2343557783096</v>
+        <v>10.60922971957139</v>
       </c>
       <c r="F24">
-        <v>43.36271444155352</v>
+        <v>43.11208397078548</v>
       </c>
       <c r="G24">
-        <v>3.717347623394977</v>
+        <v>2.051339749298294</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>37.14437467572475</v>
+        <v>33.9267268597415</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.96241447379619</v>
+        <v>29.84268633434996</v>
       </c>
       <c r="L24">
-        <v>9.904081729115768</v>
+        <v>7.069799251564381</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.610825582555254</v>
+        <v>6.162315634593795</v>
       </c>
       <c r="D25">
-        <v>8.431145459485622</v>
+        <v>5.003131217736204</v>
       </c>
       <c r="E25">
-        <v>12.1461802348498</v>
+        <v>9.837460680216109</v>
       </c>
       <c r="F25">
-        <v>42.98395412061892</v>
+        <v>39.94014175707685</v>
       </c>
       <c r="G25">
-        <v>3.725064327455917</v>
+        <v>2.076912085143772</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>36.95795716698232</v>
+        <v>31.70827207405796</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.18916664885925</v>
+        <v>26.76349427175808</v>
       </c>
       <c r="L25">
-        <v>9.903154333869644</v>
+        <v>6.752174297896977</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.750187311740497</v>
+        <v>5.759373259239703</v>
       </c>
       <c r="D2">
-        <v>5.196749386847127</v>
+        <v>5.191510663518942</v>
       </c>
       <c r="E2">
-        <v>9.268181751283551</v>
+        <v>12.91913099933661</v>
       </c>
       <c r="F2">
-        <v>37.69297570188079</v>
+        <v>14.90435099657391</v>
       </c>
       <c r="G2">
-        <v>2.095909219184825</v>
+        <v>17.09668103780286</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.010242247631989</v>
       </c>
       <c r="I2">
-        <v>30.16539699505142</v>
+        <v>3.738391045101918</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.684139418485405</v>
       </c>
       <c r="K2">
-        <v>24.34106686968132</v>
+        <v>12.47058795225018</v>
       </c>
       <c r="L2">
-        <v>6.533858920144997</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>20.74614407403822</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>18.36960705553723</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>11.89970552610039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.461308281708281</v>
+        <v>5.446001382462265</v>
       </c>
       <c r="D3">
-        <v>5.333374270639937</v>
+        <v>4.955350004952966</v>
       </c>
       <c r="E3">
-        <v>8.882114336102077</v>
+        <v>12.38769683930659</v>
       </c>
       <c r="F3">
-        <v>36.22249977414253</v>
+        <v>14.66905545580047</v>
       </c>
       <c r="G3">
-        <v>2.109002393494226</v>
+        <v>16.86112672219215</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.81258942025229</v>
       </c>
       <c r="I3">
-        <v>29.17272021836115</v>
+        <v>3.578329681748951</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.750473434526384</v>
       </c>
       <c r="K3">
-        <v>22.59593273057028</v>
+        <v>12.40388644368508</v>
       </c>
       <c r="L3">
-        <v>6.394908184872751</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>19.50993125520285</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>17.2581554474152</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>11.9411560291494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.279538396924835</v>
+        <v>5.238848915529895</v>
       </c>
       <c r="D4">
-        <v>5.419750605459532</v>
+        <v>4.804313605265881</v>
       </c>
       <c r="E4">
-        <v>8.645300114935591</v>
+        <v>12.04932035941194</v>
       </c>
       <c r="F4">
-        <v>35.34543413485094</v>
+        <v>14.53403821190211</v>
       </c>
       <c r="G4">
-        <v>2.117181434247527</v>
+        <v>16.73216809670378</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.687038274446494</v>
       </c>
       <c r="I4">
-        <v>28.58859947084847</v>
+        <v>3.476716468447778</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.794755258321675</v>
       </c>
       <c r="K4">
-        <v>21.47153240816241</v>
+        <v>12.3676469388824</v>
       </c>
       <c r="L4">
-        <v>6.313854856298881</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>18.70852859766978</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16.53806711795607</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>11.97486731720488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.204428497651235</v>
+        <v>5.137887134468796</v>
       </c>
       <c r="D5">
-        <v>5.455557042248818</v>
+        <v>4.742990895130568</v>
       </c>
       <c r="E5">
-        <v>8.54893273929388</v>
+        <v>11.90807977970023</v>
       </c>
       <c r="F5">
-        <v>34.994572091565</v>
+        <v>14.47427109970668</v>
       </c>
       <c r="G5">
-        <v>2.120553843699766</v>
+        <v>16.67074796851784</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.634654655980773</v>
       </c>
       <c r="I5">
-        <v>28.35687268929068</v>
+        <v>3.434507059575212</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.811853306818834</v>
       </c>
       <c r="K5">
-        <v>21.05231658674031</v>
+        <v>12.34665186221086</v>
       </c>
       <c r="L5">
-        <v>6.281874346572154</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>18.37120180240141</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>16.23520490750473</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>11.98576973527068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.191896261141364</v>
+        <v>5.105180640321699</v>
       </c>
       <c r="D6">
-        <v>5.461538949146763</v>
+        <v>4.734803769149355</v>
       </c>
       <c r="E6">
-        <v>8.53294187313913</v>
+        <v>11.88394691052095</v>
       </c>
       <c r="F6">
-        <v>34.93670970240547</v>
+        <v>14.45577734827811</v>
       </c>
       <c r="G6">
-        <v>2.121116324761288</v>
+        <v>16.64522616338987</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.625706232145756</v>
       </c>
       <c r="I6">
-        <v>28.31877355167173</v>
+        <v>3.42766936453485</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.812531483779306</v>
       </c>
       <c r="K6">
-        <v>20.9824163890311</v>
+        <v>12.33420792525351</v>
       </c>
       <c r="L6">
-        <v>6.276626755982074</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>18.3143180882463</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>16.18431426524291</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>11.98180682742663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.278529534584294</v>
+        <v>5.195348050708535</v>
       </c>
       <c r="D7">
-        <v>5.420231063599541</v>
+        <v>4.809106349178446</v>
       </c>
       <c r="E7">
-        <v>8.643999802413886</v>
+        <v>12.04608536947926</v>
       </c>
       <c r="F7">
-        <v>35.34067566307198</v>
+        <v>14.50953991259529</v>
       </c>
       <c r="G7">
-        <v>2.117226750964394</v>
+        <v>16.68899769194142</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.685838235484128</v>
       </c>
       <c r="I7">
-        <v>28.58544887691107</v>
+        <v>3.476512178636713</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.78893788662647</v>
       </c>
       <c r="K7">
-        <v>21.46522543442495</v>
+        <v>12.34273122786212</v>
       </c>
       <c r="L7">
-        <v>6.313419335705532</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>18.70339477406351</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>16.53391929817649</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>11.95891136537487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.651529961960508</v>
+        <v>5.602105105069033</v>
       </c>
       <c r="D8">
-        <v>5.243327970797576</v>
+        <v>5.118446274331891</v>
       </c>
       <c r="E8">
-        <v>9.135058002828556</v>
+        <v>12.73684952693902</v>
       </c>
       <c r="F8">
-        <v>37.18061865642371</v>
+        <v>14.79052946250889</v>
       </c>
       <c r="G8">
-        <v>2.100397415597287</v>
+        <v>16.95705436556022</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.942327756571025</v>
       </c>
       <c r="I8">
-        <v>29.81780118066125</v>
+        <v>3.684106293091783</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.698244475542178</v>
       </c>
       <c r="K8">
-        <v>23.75016433106126</v>
+        <v>12.41421757031442</v>
       </c>
       <c r="L8">
-        <v>6.485049625927308</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>20.3279907981107</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>17.99408812063006</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>11.89092585392684</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.346016932282235</v>
+        <v>6.350701532870186</v>
       </c>
       <c r="D9">
-        <v>4.917449682046704</v>
+        <v>5.666334592861733</v>
       </c>
       <c r="E9">
-        <v>10.09758133065943</v>
+        <v>13.99399698789645</v>
       </c>
       <c r="F9">
-        <v>40.9943010949241</v>
+        <v>15.45751919878185</v>
       </c>
       <c r="G9">
-        <v>2.068288653414804</v>
+        <v>17.68448025290758</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.41356431314664</v>
       </c>
       <c r="I9">
-        <v>32.44087696010768</v>
+        <v>4.065372426533366</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.560903003610697</v>
       </c>
       <c r="K9">
-        <v>27.82386899768367</v>
+        <v>12.63673772874989</v>
       </c>
       <c r="L9">
-        <v>6.856641226847593</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>23.17576841059527</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>20.5567298894901</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>11.85628851124952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.832244327924197</v>
+        <v>6.830902137769662</v>
       </c>
       <c r="D10">
-        <v>4.693650794105421</v>
+        <v>6.064005266902921</v>
       </c>
       <c r="E10">
-        <v>10.80332876578575</v>
+        <v>14.34207910536409</v>
       </c>
       <c r="F10">
-        <v>43.92973097391489</v>
+        <v>15.86729228032366</v>
       </c>
       <c r="G10">
-        <v>2.044897645377422</v>
+        <v>18.07568165232702</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.719801861924248</v>
       </c>
       <c r="I10">
-        <v>34.50482219362786</v>
+        <v>4.328021957222822</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.444533409062713</v>
       </c>
       <c r="K10">
-        <v>30.58865807330831</v>
+        <v>12.73844138339389</v>
       </c>
       <c r="L10">
-        <v>7.153132011437751</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>25.11835162376989</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>21.99820593444772</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>11.7865602664068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.048281616440448</v>
+        <v>7.155894952810998</v>
       </c>
       <c r="D11">
-        <v>4.596273674866615</v>
+        <v>6.45643139620488</v>
       </c>
       <c r="E11">
-        <v>11.12445305888893</v>
+        <v>10.51333656583693</v>
       </c>
       <c r="F11">
-        <v>45.29850090035522</v>
+        <v>15.04405129719018</v>
       </c>
       <c r="G11">
-        <v>2.034207186860963</v>
+        <v>16.44622290119168</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.362364690087089</v>
       </c>
       <c r="I11">
-        <v>35.47744359962441</v>
+        <v>4.423733663545208</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.10457909376269</v>
       </c>
       <c r="K11">
-        <v>31.80217347791154</v>
+        <v>12.10431635932965</v>
       </c>
       <c r="L11">
-        <v>7.293768743971254</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>26.46840555123752</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>20.42425551244394</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11.00773838848771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.129377011614613</v>
+        <v>7.393406812102422</v>
       </c>
       <c r="D12">
-        <v>4.560167526116187</v>
+        <v>6.702887957768948</v>
       </c>
       <c r="E12">
-        <v>11.24614174938833</v>
+        <v>8.259237320591618</v>
       </c>
       <c r="F12">
-        <v>45.82220963110203</v>
+        <v>14.27779362436183</v>
       </c>
       <c r="G12">
-        <v>2.030142571838741</v>
+        <v>15.02025908575012</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.463756949232247</v>
       </c>
       <c r="I12">
-        <v>35.8510787440114</v>
+        <v>4.453465006877068</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.851329719896304</v>
       </c>
       <c r="K12">
-        <v>32.25586436243081</v>
+        <v>11.57708624874483</v>
       </c>
       <c r="L12">
-        <v>7.347925770285901</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>27.2221377022304</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>18.78066520166466</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>10.38478376312455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.111942746104114</v>
+        <v>7.533188055888146</v>
       </c>
       <c r="D13">
-        <v>4.567906877570973</v>
+        <v>6.864660341410723</v>
       </c>
       <c r="E13">
-        <v>11.21992846621952</v>
+        <v>7.949361596735688</v>
       </c>
       <c r="F13">
-        <v>45.70916859431026</v>
+        <v>13.45949465598625</v>
       </c>
       <c r="G13">
-        <v>2.031018851053489</v>
+        <v>13.5778991157174</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.699853115708637</v>
       </c>
       <c r="I13">
-        <v>35.77036374387853</v>
+        <v>4.435331946781506</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.641454791194379</v>
       </c>
       <c r="K13">
-        <v>32.15840461226405</v>
+        <v>11.0596982712908</v>
       </c>
       <c r="L13">
-        <v>7.336220654341992</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>27.5847847428917</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>16.93153296273831</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>9.820338028753339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.054967452229848</v>
+        <v>7.579211993689667</v>
       </c>
       <c r="D14">
-        <v>4.593286887071427</v>
+        <v>6.942984198121994</v>
       </c>
       <c r="E14">
-        <v>11.13446216642227</v>
+        <v>9.022201404683926</v>
       </c>
       <c r="F14">
-        <v>45.34147473968041</v>
+        <v>12.85305448831649</v>
       </c>
       <c r="G14">
-        <v>2.033873174968854</v>
+        <v>12.54783963429631</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.610081122443868</v>
       </c>
       <c r="I14">
-        <v>35.50807282221477</v>
+        <v>4.401695632979788</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.515322645479528</v>
       </c>
       <c r="K14">
-        <v>31.83961272197982</v>
+        <v>10.69714938714978</v>
       </c>
       <c r="L14">
-        <v>7.298205735193515</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>27.6670268277998</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>15.51734229025841</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>9.454015114734805</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.019976695844099</v>
+        <v>7.555047483444828</v>
       </c>
       <c r="D15">
-        <v>4.608937606533951</v>
+        <v>6.945782711340192</v>
       </c>
       <c r="E15">
-        <v>11.08212568429774</v>
+        <v>9.40532522136011</v>
       </c>
       <c r="F15">
-        <v>45.11697369657059</v>
+        <v>12.68806729998401</v>
       </c>
       <c r="G15">
-        <v>2.03561909897832</v>
+        <v>12.28372565423977</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.818293098370193</v>
       </c>
       <c r="I15">
-        <v>35.3481221008506</v>
+        <v>4.383105745763646</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.492566061144321</v>
       </c>
       <c r="K15">
-        <v>31.64359947581724</v>
+        <v>10.60424987030351</v>
       </c>
       <c r="L15">
-        <v>7.27504030516087</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>27.60275271216891</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>15.12474409888359</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>9.374321233987198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.818024052210996</v>
+        <v>7.318864035433487</v>
       </c>
       <c r="D16">
-        <v>4.700114027175643</v>
+        <v>6.762194668077787</v>
       </c>
       <c r="E16">
-        <v>10.78234957997706</v>
+        <v>9.223423853631429</v>
       </c>
       <c r="F16">
-        <v>43.84099609201937</v>
+        <v>12.62982223390397</v>
       </c>
       <c r="G16">
-        <v>2.045594537113647</v>
+        <v>12.33264190557553</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.55099342612633</v>
       </c>
       <c r="I16">
-        <v>34.44197503991759</v>
+        <v>4.275824372444574</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.584168640494519</v>
       </c>
       <c r="K16">
-        <v>30.50850477772534</v>
+        <v>10.64471196493346</v>
       </c>
       <c r="L16">
-        <v>7.14406278036593</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>26.76611369052753</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.75550085349643</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>9.512149679928591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.692827056168987</v>
+        <v>7.105680225312526</v>
       </c>
       <c r="D17">
-        <v>4.757262965503529</v>
+        <v>6.575122013056466</v>
       </c>
       <c r="E17">
-        <v>10.59850723530802</v>
+        <v>8.331763681695703</v>
       </c>
       <c r="F17">
-        <v>43.0671353764451</v>
+        <v>12.91677464604096</v>
       </c>
       <c r="G17">
-        <v>2.051695305194638</v>
+        <v>12.92698401247199</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.813516907665566</v>
       </c>
       <c r="I17">
-        <v>33.89501430614757</v>
+        <v>4.211031631360683</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.719880783917017</v>
       </c>
       <c r="K17">
-        <v>29.80118213824386</v>
+        <v>10.86863269061649</v>
       </c>
       <c r="L17">
-        <v>7.065233873764012</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>26.06284509610696</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>15.26015748645202</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>9.808761004194318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.620329528776205</v>
+        <v>6.924708406596556</v>
       </c>
       <c r="D18">
-        <v>4.790540446869941</v>
+        <v>6.3624363306289</v>
       </c>
       <c r="E18">
-        <v>10.49276641057726</v>
+        <v>7.778531514983704</v>
       </c>
       <c r="F18">
-        <v>42.62513171335311</v>
+        <v>13.54286174994116</v>
       </c>
       <c r="G18">
-        <v>2.055200253321353</v>
+        <v>14.0798537926425</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.636846513090164</v>
       </c>
       <c r="I18">
-        <v>33.58355490347903</v>
+        <v>4.176630637327266</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.914901798744864</v>
       </c>
       <c r="K18">
-        <v>29.39015336844282</v>
+        <v>11.29292471563281</v>
       </c>
       <c r="L18">
-        <v>7.020430569226437</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>25.40800592960573</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.58057885248685</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10.29007710656896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.595698855833092</v>
+        <v>6.724223747348542</v>
       </c>
       <c r="D19">
-        <v>4.801874194044728</v>
+        <v>6.158742717628132</v>
       </c>
       <c r="E19">
-        <v>10.45696281048453</v>
+        <v>9.275601382049405</v>
       </c>
       <c r="F19">
-        <v>42.47599504743567</v>
+        <v>14.34853017648805</v>
       </c>
       <c r="G19">
-        <v>2.056386529182127</v>
+        <v>15.52586617439948</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.376298205824981</v>
       </c>
       <c r="I19">
-        <v>33.47862686408931</v>
+        <v>4.176036708926696</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.138826011784357</v>
       </c>
       <c r="K19">
-        <v>29.25025108117768</v>
+        <v>11.80880646655458</v>
       </c>
       <c r="L19">
-        <v>7.005351257769727</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>24.85267181568751</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>18.43639326097745</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>10.86949616606745</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.706204809989435</v>
+        <v>6.605257681108667</v>
       </c>
       <c r="D20">
-        <v>4.751136432350194</v>
+        <v>5.977911081167909</v>
       </c>
       <c r="E20">
-        <v>10.61807710484773</v>
+        <v>14.22536824150894</v>
       </c>
       <c r="F20">
-        <v>43.14918973635758</v>
+        <v>15.68356630357774</v>
       </c>
       <c r="G20">
-        <v>2.051046349361471</v>
+        <v>17.8358225707441</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.637064429476258</v>
       </c>
       <c r="I20">
-        <v>33.95291145963149</v>
+        <v>4.262981003187004</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.453360151337107</v>
       </c>
       <c r="K20">
-        <v>29.87690857927764</v>
+        <v>12.63260995674517</v>
       </c>
       <c r="L20">
-        <v>7.073569302399515</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>24.62421527288426</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>21.61775602866345</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>11.74802253428032</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.07172152020146</v>
+        <v>6.9479783098338</v>
       </c>
       <c r="D21">
-        <v>4.585810037679554</v>
+        <v>6.231060082314654</v>
       </c>
       <c r="E21">
-        <v>11.15956256180521</v>
+        <v>15.2668161705713</v>
       </c>
       <c r="F21">
-        <v>45.44932352586581</v>
+        <v>16.20452202180221</v>
       </c>
       <c r="G21">
-        <v>2.033035316328221</v>
+        <v>18.50848466709052</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.900433904752525</v>
       </c>
       <c r="I21">
-        <v>35.58496498845326</v>
+        <v>4.464272377310698</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.425738696447276</v>
       </c>
       <c r="K21">
-        <v>31.93340364129828</v>
+        <v>12.85186878423461</v>
       </c>
       <c r="L21">
-        <v>7.30934651392283</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>25.95612889253028</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>23.06483548876523</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>11.85378609516433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.306477368570115</v>
+        <v>7.208979741115624</v>
       </c>
       <c r="D22">
-        <v>4.482334737376128</v>
+        <v>6.397307206649762</v>
       </c>
       <c r="E22">
-        <v>11.51402007535263</v>
+        <v>15.67253316184063</v>
       </c>
       <c r="F22">
-        <v>46.98441152044525</v>
+        <v>16.52087995583135</v>
       </c>
       <c r="G22">
-        <v>2.021163174583738</v>
+        <v>18.90612057964153</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.058413432389627</v>
       </c>
       <c r="I22">
-        <v>36.68297639285091</v>
+        <v>4.590574679571156</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.403391388661956</v>
       </c>
       <c r="K22">
-        <v>33.24369739166027</v>
+        <v>12.99186866362122</v>
       </c>
       <c r="L22">
-        <v>7.468740424895218</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>26.81984308305373</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>23.84445814704443</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>11.91067423400607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.181547538171987</v>
+        <v>7.108531547527249</v>
       </c>
       <c r="D23">
-        <v>4.537087067793295</v>
+        <v>6.303761965619595</v>
       </c>
       <c r="E23">
-        <v>11.32475213472835</v>
+        <v>15.45819014179328</v>
       </c>
       <c r="F23">
-        <v>46.16194672736651</v>
+        <v>16.37619003046355</v>
       </c>
       <c r="G23">
-        <v>2.027512261221325</v>
+        <v>18.73713845992184</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.974851958785034</v>
       </c>
       <c r="I23">
-        <v>36.09387904484853</v>
+        <v>4.522083986463665</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.422092544554141</v>
       </c>
       <c r="K23">
-        <v>32.54726417065717</v>
+        <v>12.94430819898608</v>
       </c>
       <c r="L23">
-        <v>7.38315475440132</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>26.36285075848575</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>23.43158618748658</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>11.89800956412387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.700158349286067</v>
+        <v>6.644734602684369</v>
       </c>
       <c r="D24">
-        <v>4.753904933539218</v>
+        <v>5.945517971184735</v>
       </c>
       <c r="E24">
-        <v>10.60922971957139</v>
+        <v>14.61968023939889</v>
       </c>
       <c r="F24">
-        <v>43.11208397078548</v>
+        <v>15.80539451208092</v>
       </c>
       <c r="G24">
-        <v>2.051339749298294</v>
+        <v>18.05894977814913</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.651424299844232</v>
       </c>
       <c r="I24">
-        <v>33.9267268597415</v>
+        <v>4.259655799878381</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.490721109690456</v>
       </c>
       <c r="K24">
-        <v>29.84268633434996</v>
+        <v>12.7316591188864</v>
       </c>
       <c r="L24">
-        <v>7.069799251564381</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>24.5547678045264</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>21.80007533587129</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>11.84255794884308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.162315634593795</v>
+        <v>6.095464985399719</v>
       </c>
       <c r="D25">
-        <v>5.003131217736204</v>
+        <v>5.532654220462946</v>
       </c>
       <c r="E25">
-        <v>9.837460680216109</v>
+        <v>13.66310206968494</v>
       </c>
       <c r="F25">
-        <v>39.94014175707685</v>
+        <v>15.22856111410275</v>
       </c>
       <c r="G25">
-        <v>2.076912085143772</v>
+        <v>17.40066826861115</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.288669832064243</v>
       </c>
       <c r="I25">
-        <v>31.70827207405796</v>
+        <v>3.966053656164954</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.583692918048289</v>
       </c>
       <c r="K25">
-        <v>26.76349427175808</v>
+        <v>12.5286238040449</v>
       </c>
       <c r="L25">
-        <v>6.752174297896977</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>22.44106550089639</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>19.89569564010151</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>11.82855547803508</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.759373259239703</v>
+        <v>4.929412515271939</v>
       </c>
       <c r="D2">
-        <v>5.191510663518942</v>
+        <v>5.317546074701321</v>
       </c>
       <c r="E2">
-        <v>12.91913099933661</v>
+        <v>12.84746578100451</v>
       </c>
       <c r="F2">
-        <v>14.90435099657391</v>
+        <v>14.49924782785669</v>
       </c>
       <c r="G2">
-        <v>17.09668103780286</v>
+        <v>15.58030774391759</v>
       </c>
       <c r="H2">
-        <v>2.010242247631989</v>
+        <v>1.9818962713306</v>
       </c>
       <c r="I2">
-        <v>3.738391045101918</v>
+        <v>3.679126803603248</v>
       </c>
       <c r="J2">
-        <v>7.684139418485405</v>
+        <v>8.192698580895208</v>
       </c>
       <c r="K2">
-        <v>12.47058795225018</v>
+        <v>12.02998908667858</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.37562860576706</v>
       </c>
       <c r="M2">
-        <v>20.74614407403822</v>
+        <v>6.606918227714869</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.36960705553723</v>
+        <v>20.71270171322533</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>11.89970552610039</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>18.36288145035054</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>11.65258533440579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.446001382462265</v>
+        <v>4.706772596402208</v>
       </c>
       <c r="D3">
-        <v>4.955350004952966</v>
+        <v>5.059272363340257</v>
       </c>
       <c r="E3">
-        <v>12.38769683930659</v>
+        <v>12.33126272563395</v>
       </c>
       <c r="F3">
-        <v>14.66905545580047</v>
+        <v>14.33433885621653</v>
       </c>
       <c r="G3">
-        <v>16.86112672219215</v>
+        <v>15.46890597889063</v>
       </c>
       <c r="H3">
-        <v>1.81258942025229</v>
+        <v>1.791086523024588</v>
       </c>
       <c r="I3">
-        <v>3.578329681748951</v>
+        <v>3.54046912775769</v>
       </c>
       <c r="J3">
-        <v>7.750473434526384</v>
+        <v>8.240970945982424</v>
       </c>
       <c r="K3">
-        <v>12.40388644368508</v>
+        <v>12.0262420237416</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.50742435838179</v>
       </c>
       <c r="M3">
-        <v>19.50993125520285</v>
+        <v>6.414221637377127</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.2581554474152</v>
+        <v>19.48362093393647</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>11.9411560291494</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>17.25349447881243</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>11.7368327923329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.238848915529895</v>
+        <v>4.558255264608801</v>
       </c>
       <c r="D4">
-        <v>4.804313605265881</v>
+        <v>4.893982686592134</v>
       </c>
       <c r="E4">
-        <v>12.04932035941194</v>
+        <v>12.00308536486558</v>
       </c>
       <c r="F4">
-        <v>14.53403821190211</v>
+        <v>14.24156996827015</v>
       </c>
       <c r="G4">
-        <v>16.73216809670378</v>
+        <v>15.41857840067084</v>
       </c>
       <c r="H4">
-        <v>1.687038274446494</v>
+        <v>1.669849075781354</v>
       </c>
       <c r="I4">
-        <v>3.476716468447778</v>
+        <v>3.452524572976221</v>
       </c>
       <c r="J4">
-        <v>7.794755258321675</v>
+        <v>8.272271848171279</v>
       </c>
       <c r="K4">
-        <v>12.3676469388824</v>
+        <v>12.02692927977191</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.58910039974137</v>
       </c>
       <c r="M4">
-        <v>18.70852859766978</v>
+        <v>6.320475754023532</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.53806711795607</v>
+        <v>18.68693786430375</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11.97486731720488</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>16.53457340849692</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>11.79524892975365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.137887134468796</v>
+        <v>4.482629588656844</v>
       </c>
       <c r="D5">
-        <v>4.742990895130568</v>
+        <v>4.826666674446249</v>
       </c>
       <c r="E5">
-        <v>11.90807977970023</v>
+        <v>11.86624874506388</v>
       </c>
       <c r="F5">
-        <v>14.47427109970668</v>
+        <v>14.19904216698345</v>
       </c>
       <c r="G5">
-        <v>16.67074796851784</v>
+        <v>15.38993898499601</v>
       </c>
       <c r="H5">
-        <v>1.634654655980773</v>
+        <v>1.619263333727335</v>
       </c>
       <c r="I5">
-        <v>3.434507059575212</v>
+        <v>3.41626583765223</v>
       </c>
       <c r="J5">
-        <v>7.811853306818834</v>
+        <v>8.283741129443108</v>
       </c>
       <c r="K5">
-        <v>12.34665186221086</v>
+        <v>12.02106332253543</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.61687202322395</v>
       </c>
       <c r="M5">
-        <v>18.37120180240141</v>
+        <v>6.283981686618323</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.23520490750473</v>
+        <v>18.35164302956209</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11.98576973527068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>16.23216498624735</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>11.81613206219983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.105180640321699</v>
+        <v>4.455111960010103</v>
       </c>
       <c r="D6">
-        <v>4.734803769149355</v>
+        <v>4.81744706336159</v>
       </c>
       <c r="E6">
-        <v>11.88394691052095</v>
+        <v>11.84289746246317</v>
       </c>
       <c r="F6">
-        <v>14.45577734827811</v>
+        <v>14.1837679280303</v>
       </c>
       <c r="G6">
-        <v>16.64522616338987</v>
+        <v>15.37021055856649</v>
       </c>
       <c r="H6">
-        <v>1.625706232145756</v>
+        <v>1.610628262581014</v>
       </c>
       <c r="I6">
-        <v>3.42766936453485</v>
+        <v>3.410760165144896</v>
       </c>
       <c r="J6">
-        <v>7.812531483779306</v>
+        <v>8.283599759316328</v>
       </c>
       <c r="K6">
-        <v>12.33420792525351</v>
+        <v>12.01174641573799</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.61453568845833</v>
       </c>
       <c r="M6">
-        <v>18.3143180882463</v>
+        <v>6.272451866961153</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.18431426524291</v>
+        <v>18.29512033796184</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11.98180682742663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>16.18135084850879</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>11.8141686935408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.195348050708535</v>
+        <v>4.522339768412146</v>
       </c>
       <c r="D7">
-        <v>4.809106349178446</v>
+        <v>4.902006293475244</v>
       </c>
       <c r="E7">
-        <v>12.04608536947926</v>
+        <v>11.99921336591147</v>
       </c>
       <c r="F7">
-        <v>14.50953991259529</v>
+        <v>14.20464274286303</v>
       </c>
       <c r="G7">
-        <v>16.68899769194142</v>
+        <v>15.45679501283513</v>
       </c>
       <c r="H7">
-        <v>1.685838235484128</v>
+        <v>1.668412171229299</v>
       </c>
       <c r="I7">
-        <v>3.476512178636713</v>
+        <v>3.45278326907518</v>
       </c>
       <c r="J7">
-        <v>7.78893788662647</v>
+        <v>8.236793719005966</v>
       </c>
       <c r="K7">
-        <v>12.34273122786212</v>
+        <v>11.99611623886504</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.56455889972608</v>
       </c>
       <c r="M7">
-        <v>18.70339477406351</v>
+        <v>6.297490863120095</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.53391929817649</v>
+        <v>18.68150744487074</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11.95891136537487</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>16.53037887733025</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>11.77138273227413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.602105105069033</v>
+        <v>4.820810812161818</v>
       </c>
       <c r="D8">
-        <v>5.118446274331891</v>
+        <v>5.24761589861731</v>
       </c>
       <c r="E8">
-        <v>12.73684952693902</v>
+        <v>12.66807852939055</v>
       </c>
       <c r="F8">
-        <v>14.79052946250889</v>
+        <v>14.36658889856482</v>
       </c>
       <c r="G8">
-        <v>16.95705436556022</v>
+        <v>15.74904915636827</v>
       </c>
       <c r="H8">
-        <v>1.942327756571025</v>
+        <v>1.915458749783844</v>
       </c>
       <c r="I8">
-        <v>3.684106293091783</v>
+        <v>3.631718116940389</v>
       </c>
       <c r="J8">
-        <v>7.698244475542178</v>
+        <v>8.103891054264166</v>
       </c>
       <c r="K8">
-        <v>12.41421757031442</v>
+        <v>11.97234501282292</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.37893204799571</v>
       </c>
       <c r="M8">
-        <v>20.3279907981107</v>
+        <v>6.490208448898302</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.99408812063006</v>
+        <v>20.29592536876529</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11.89092585392684</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>17.98789817423461</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>11.63029987134697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.350701532870186</v>
+        <v>5.359870802887675</v>
       </c>
       <c r="D9">
-        <v>5.666334592861733</v>
+        <v>5.848617854193627</v>
       </c>
       <c r="E9">
-        <v>13.99399698789645</v>
+        <v>13.89149720609946</v>
       </c>
       <c r="F9">
-        <v>15.45751919878185</v>
+        <v>14.84294939284347</v>
       </c>
       <c r="G9">
-        <v>17.68448025290758</v>
+        <v>16.2484444957361</v>
       </c>
       <c r="H9">
-        <v>2.41356431314664</v>
+        <v>2.370017329210209</v>
       </c>
       <c r="I9">
-        <v>4.065372426533366</v>
+        <v>3.961233405624662</v>
       </c>
       <c r="J9">
-        <v>7.560903003610697</v>
+        <v>7.971917265742999</v>
       </c>
       <c r="K9">
-        <v>12.63673772874989</v>
+        <v>12.02002311265913</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.07356238551083</v>
       </c>
       <c r="M9">
-        <v>23.17576841059527</v>
+        <v>7.102403841048767</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.5567298894901</v>
+        <v>23.12735770770724</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11.85628851124952</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>20.54468388686238</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>11.47033136109321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.830902137769662</v>
+        <v>5.735191502497741</v>
       </c>
       <c r="D10">
-        <v>6.064005266902921</v>
+        <v>6.296643891664582</v>
       </c>
       <c r="E10">
-        <v>14.34207910536409</v>
+        <v>14.21260550962529</v>
       </c>
       <c r="F10">
-        <v>15.86729228032366</v>
+        <v>15.04899829380948</v>
       </c>
       <c r="G10">
-        <v>18.07568165232702</v>
+        <v>16.94793363838782</v>
       </c>
       <c r="H10">
-        <v>2.719801861924248</v>
+        <v>2.663538395394883</v>
       </c>
       <c r="I10">
-        <v>4.328021957222822</v>
+        <v>4.187074650601843</v>
       </c>
       <c r="J10">
-        <v>7.444533409062713</v>
+        <v>7.693605577050599</v>
       </c>
       <c r="K10">
-        <v>12.73844138339389</v>
+        <v>11.95592839499858</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.77886467382839</v>
       </c>
       <c r="M10">
-        <v>25.11835162376989</v>
+        <v>7.529643908963807</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.99820593444772</v>
+        <v>25.05792733876261</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11.7865602664068</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>21.98115844370186</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>11.2587116874884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.155894952810998</v>
+        <v>6.139921107227047</v>
       </c>
       <c r="D11">
-        <v>6.45643139620488</v>
+        <v>6.72773348946342</v>
       </c>
       <c r="E11">
-        <v>10.51333656583693</v>
+        <v>10.32888176564525</v>
       </c>
       <c r="F11">
-        <v>15.04405129719018</v>
+        <v>14.09616350852529</v>
       </c>
       <c r="G11">
-        <v>16.44622290119168</v>
+        <v>16.32802114286589</v>
       </c>
       <c r="H11">
-        <v>3.362364690087089</v>
+        <v>3.313779746286881</v>
       </c>
       <c r="I11">
-        <v>4.423733663545208</v>
+        <v>4.26848470402957</v>
       </c>
       <c r="J11">
-        <v>7.10457909376269</v>
+        <v>7.154160290209625</v>
       </c>
       <c r="K11">
-        <v>12.10431635932965</v>
+        <v>11.28845538881988</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.2592142869636</v>
       </c>
       <c r="M11">
-        <v>26.46840555123752</v>
+        <v>7.144574861202432</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.42425551244394</v>
+        <v>26.4030384238015</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11.00773838848771</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>20.40706775830758</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>10.42266170120256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.393406812102422</v>
+        <v>6.453647367280086</v>
       </c>
       <c r="D12">
-        <v>6.702887957768948</v>
+        <v>6.986472235568988</v>
       </c>
       <c r="E12">
-        <v>8.259237320591618</v>
+        <v>8.027015987440603</v>
       </c>
       <c r="F12">
-        <v>14.27779362436183</v>
+        <v>13.30974486352273</v>
       </c>
       <c r="G12">
-        <v>15.02025908575012</v>
+        <v>15.41069328489819</v>
       </c>
       <c r="H12">
-        <v>4.463756949232247</v>
+        <v>4.427408913706559</v>
       </c>
       <c r="I12">
-        <v>4.453465006877068</v>
+        <v>4.292913348362312</v>
       </c>
       <c r="J12">
-        <v>6.851329719896304</v>
+        <v>6.910174756641056</v>
       </c>
       <c r="K12">
-        <v>11.57708624874483</v>
+        <v>10.79762846890712</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.932852249295321</v>
       </c>
       <c r="M12">
-        <v>27.2221377022304</v>
+        <v>6.770278583607209</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.78066520166466</v>
+        <v>27.15556212754628</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10.38478376312455</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.76478850160784</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>9.821590775841598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.533188055888146</v>
+        <v>6.668195583050138</v>
       </c>
       <c r="D13">
-        <v>6.864660341410723</v>
+        <v>7.133033959956093</v>
       </c>
       <c r="E13">
-        <v>7.949361596735688</v>
+        <v>7.722701230353506</v>
       </c>
       <c r="F13">
-        <v>13.45949465598625</v>
+        <v>12.58890570295312</v>
       </c>
       <c r="G13">
-        <v>13.5778991157174</v>
+        <v>13.92014128619929</v>
       </c>
       <c r="H13">
-        <v>5.699853115708637</v>
+        <v>5.673189814582032</v>
       </c>
       <c r="I13">
-        <v>4.435331946781506</v>
+        <v>4.278065383690956</v>
       </c>
       <c r="J13">
-        <v>6.641454791194379</v>
+        <v>6.836491933756116</v>
       </c>
       <c r="K13">
-        <v>11.0596982712908</v>
+        <v>10.39276882379562</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.709650755899432</v>
       </c>
       <c r="M13">
-        <v>27.5847847428917</v>
+        <v>6.362240289961554</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.93153296273831</v>
+        <v>27.52021894470899</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9.820338028753339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>16.91808729868002</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>9.360368562922728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.579211993689667</v>
+        <v>6.768160311446106</v>
       </c>
       <c r="D14">
-        <v>6.942984198121994</v>
+        <v>7.188047882839522</v>
       </c>
       <c r="E14">
-        <v>9.022201404683926</v>
+        <v>8.835862205942314</v>
       </c>
       <c r="F14">
-        <v>12.85305448831649</v>
+        <v>12.10296903041148</v>
       </c>
       <c r="G14">
-        <v>12.54783963429631</v>
+        <v>12.61234155114705</v>
       </c>
       <c r="H14">
-        <v>6.610081122443868</v>
+        <v>6.588691691467338</v>
       </c>
       <c r="I14">
-        <v>4.401695632979788</v>
+        <v>4.250819464185724</v>
       </c>
       <c r="J14">
-        <v>6.515322645479528</v>
+        <v>6.837938433310248</v>
       </c>
       <c r="K14">
-        <v>10.69714938714978</v>
+        <v>10.14127597721574</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.59156661638216</v>
       </c>
       <c r="M14">
-        <v>27.6670268277998</v>
+        <v>6.054467986947538</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.51734229025841</v>
+        <v>27.60529335865063</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9.454015114734805</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>15.50598308409448</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>9.098143213415558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.555047483444828</v>
+        <v>6.758106428349462</v>
       </c>
       <c r="D15">
-        <v>6.945782711340192</v>
+        <v>7.179682646993693</v>
       </c>
       <c r="E15">
-        <v>9.40532522136011</v>
+        <v>9.231769486930878</v>
       </c>
       <c r="F15">
-        <v>12.68806729998401</v>
+        <v>11.98967471332237</v>
       </c>
       <c r="G15">
-        <v>12.28372565423977</v>
+        <v>12.17987328077362</v>
       </c>
       <c r="H15">
-        <v>6.818293098370193</v>
+        <v>6.798266779716705</v>
       </c>
       <c r="I15">
-        <v>4.383105745763646</v>
+        <v>4.236098150210391</v>
       </c>
       <c r="J15">
-        <v>6.492566061144321</v>
+        <v>6.860780232384902</v>
       </c>
       <c r="K15">
-        <v>10.60424987030351</v>
+        <v>10.08938443123691</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.576108475255801</v>
       </c>
       <c r="M15">
-        <v>27.60275271216891</v>
+        <v>5.965537661093041</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.12474409888359</v>
+        <v>27.54242587116862</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9.374321233987198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>15.11406884676694</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>9.056659682998545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.318864035433487</v>
+        <v>6.524715575914251</v>
       </c>
       <c r="D16">
-        <v>6.762194668077787</v>
+        <v>6.950319238559064</v>
       </c>
       <c r="E16">
-        <v>9.223423853631429</v>
+        <v>9.06710846143976</v>
       </c>
       <c r="F16">
-        <v>12.62982223390397</v>
+        <v>12.11352133938675</v>
       </c>
       <c r="G16">
-        <v>12.33264190557553</v>
+        <v>11.42994943150151</v>
       </c>
       <c r="H16">
-        <v>6.55099342612633</v>
+        <v>6.533564062021016</v>
       </c>
       <c r="I16">
-        <v>4.275824372444574</v>
+        <v>4.147302872889797</v>
       </c>
       <c r="J16">
-        <v>6.584168640494519</v>
+        <v>7.101563600081873</v>
       </c>
       <c r="K16">
-        <v>10.64471196493346</v>
+        <v>10.23890471667156</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.739727792082626</v>
       </c>
       <c r="M16">
-        <v>26.76611369052753</v>
+        <v>5.902803157384199</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.75550085349643</v>
+        <v>26.71239237999671</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9.512149679928591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.74646941654414</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>9.296933040363665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.105680225312526</v>
+        <v>6.289588324836306</v>
       </c>
       <c r="D17">
-        <v>6.575122013056466</v>
+        <v>6.745676368513869</v>
       </c>
       <c r="E17">
-        <v>8.331763681695703</v>
+        <v>8.16840793696216</v>
       </c>
       <c r="F17">
-        <v>12.91677464604096</v>
+        <v>12.45646002923424</v>
       </c>
       <c r="G17">
-        <v>12.92698401247199</v>
+        <v>11.67974252837417</v>
       </c>
       <c r="H17">
-        <v>5.813516907665566</v>
+        <v>5.795731615877206</v>
       </c>
       <c r="I17">
-        <v>4.211031631360683</v>
+        <v>4.092981598069786</v>
       </c>
       <c r="J17">
-        <v>6.719880783917017</v>
+        <v>7.294594835582795</v>
       </c>
       <c r="K17">
-        <v>10.86863269061649</v>
+        <v>10.47909926815919</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.931242600095084</v>
       </c>
       <c r="M17">
-        <v>26.06284509610696</v>
+        <v>6.011331542894915</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.26015748645202</v>
+        <v>26.01243068961777</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9.808761004194318</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>15.25134761012522</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>9.610869232749261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.924708406596556</v>
+        <v>6.053247093968786</v>
       </c>
       <c r="D18">
-        <v>6.3624363306289</v>
+        <v>6.531401905526294</v>
       </c>
       <c r="E18">
-        <v>7.778531514983704</v>
+        <v>7.603429173171208</v>
       </c>
       <c r="F18">
-        <v>13.54286174994116</v>
+        <v>13.06489190326563</v>
       </c>
       <c r="G18">
-        <v>14.0798537926425</v>
+        <v>12.64642750399915</v>
       </c>
       <c r="H18">
-        <v>4.636846513090164</v>
+        <v>4.615057925323668</v>
       </c>
       <c r="I18">
-        <v>4.176630637327266</v>
+        <v>4.06251210466559</v>
       </c>
       <c r="J18">
-        <v>6.914901798744864</v>
+        <v>7.491265720355704</v>
       </c>
       <c r="K18">
-        <v>11.29292471563281</v>
+        <v>10.85750396877121</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.19321969513917</v>
       </c>
       <c r="M18">
-        <v>25.40800592960573</v>
+        <v>6.300947974462129</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.58057885248685</v>
+        <v>25.35860587226559</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10.29007710656896</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.57094799724569</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>10.05738024412163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.724223747348542</v>
+        <v>5.77935664749485</v>
       </c>
       <c r="D19">
-        <v>6.158742717628132</v>
+        <v>6.335665074869098</v>
       </c>
       <c r="E19">
-        <v>9.275601382049405</v>
+        <v>9.121435254724279</v>
       </c>
       <c r="F19">
-        <v>14.34853017648805</v>
+        <v>13.80979564575654</v>
       </c>
       <c r="G19">
-        <v>15.52586617439948</v>
+        <v>13.97520707986403</v>
       </c>
       <c r="H19">
-        <v>3.376298205824981</v>
+        <v>3.344649766438816</v>
       </c>
       <c r="I19">
-        <v>4.176036708926696</v>
+        <v>4.062272959820389</v>
       </c>
       <c r="J19">
-        <v>7.138826011784357</v>
+        <v>7.684521206143062</v>
       </c>
       <c r="K19">
-        <v>11.80880646655458</v>
+        <v>11.29178786169671</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.47677765338762</v>
       </c>
       <c r="M19">
-        <v>24.85267181568751</v>
+        <v>6.681639029281161</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.43639326097745</v>
+        <v>24.80241762875011</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10.86949616606745</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>18.42516342083639</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>10.57209894595923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.605257681108667</v>
+        <v>5.534147235726617</v>
       </c>
       <c r="D20">
-        <v>5.977911081167909</v>
+        <v>6.187126718444882</v>
       </c>
       <c r="E20">
-        <v>14.22536824150894</v>
+        <v>14.10479518720974</v>
       </c>
       <c r="F20">
-        <v>15.68356630357774</v>
+        <v>14.96753645875301</v>
       </c>
       <c r="G20">
-        <v>17.8358225707441</v>
+        <v>16.35378413386768</v>
       </c>
       <c r="H20">
-        <v>2.637064429476258</v>
+        <v>2.585017235482765</v>
       </c>
       <c r="I20">
-        <v>4.262981003187004</v>
+        <v>4.135899146422664</v>
       </c>
       <c r="J20">
-        <v>7.453360151337107</v>
+        <v>7.8482668183203</v>
       </c>
       <c r="K20">
-        <v>12.63260995674517</v>
+        <v>11.92824955945503</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.8272822152538</v>
       </c>
       <c r="M20">
-        <v>24.62421527288426</v>
+        <v>7.374126060342235</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.61775602866345</v>
+        <v>24.56789725609934</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11.74802253428032</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>21.60234995371938</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>11.29465547105488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.9479783098338</v>
+        <v>5.850319741659584</v>
       </c>
       <c r="D21">
-        <v>6.231060082314654</v>
+        <v>6.532197897089084</v>
       </c>
       <c r="E21">
-        <v>15.2668161705713</v>
+        <v>15.12290101689246</v>
       </c>
       <c r="F21">
-        <v>16.20452202180221</v>
+        <v>15.07994342146689</v>
       </c>
       <c r="G21">
-        <v>18.50848466709052</v>
+        <v>18.69403720696776</v>
       </c>
       <c r="H21">
-        <v>2.900433904752525</v>
+        <v>2.834271074770415</v>
       </c>
       <c r="I21">
-        <v>4.464272377310698</v>
+        <v>4.302097401958878</v>
       </c>
       <c r="J21">
-        <v>7.425738696447276</v>
+        <v>7.225035522480681</v>
       </c>
       <c r="K21">
-        <v>12.85186878423461</v>
+        <v>11.855052677998</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.58917801761206</v>
       </c>
       <c r="M21">
-        <v>25.95612889253028</v>
+        <v>7.691764519965064</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.06483548876523</v>
+        <v>25.88631303679998</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11.85378609516433</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>23.04363297545675</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.10092381575162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.208979741115624</v>
+        <v>6.101581600287399</v>
       </c>
       <c r="D22">
-        <v>6.397307206649762</v>
+        <v>6.759717125480674</v>
       </c>
       <c r="E22">
-        <v>15.67253316184063</v>
+        <v>15.51315408837604</v>
       </c>
       <c r="F22">
-        <v>16.52087995583135</v>
+        <v>15.11760038727124</v>
       </c>
       <c r="G22">
-        <v>18.90612057964153</v>
+        <v>20.29279555508936</v>
       </c>
       <c r="H22">
-        <v>3.058413432389627</v>
+        <v>2.983390854929664</v>
       </c>
       <c r="I22">
-        <v>4.590574679571156</v>
+        <v>4.405106885106656</v>
       </c>
       <c r="J22">
-        <v>7.403391388661956</v>
+        <v>6.877142522904794</v>
       </c>
       <c r="K22">
-        <v>12.99186866362122</v>
+        <v>11.79447545862888</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.42757618430373</v>
       </c>
       <c r="M22">
-        <v>26.81984308305373</v>
+        <v>7.893198473527517</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.84445814704443</v>
+        <v>26.74170493744388</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11.91067423400607</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>23.81941093071588</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>10.94791511781096</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.108531547527249</v>
+        <v>5.993166722523468</v>
       </c>
       <c r="D23">
-        <v>6.303761965619595</v>
+        <v>6.626409787538059</v>
       </c>
       <c r="E23">
-        <v>15.45819014179328</v>
+        <v>15.30781146970157</v>
       </c>
       <c r="F23">
-        <v>16.37619003046355</v>
+        <v>15.15336591243843</v>
       </c>
       <c r="G23">
-        <v>18.73713845992184</v>
+        <v>19.2803058674437</v>
       </c>
       <c r="H23">
-        <v>2.974851958785034</v>
+        <v>2.90495545830511</v>
       </c>
       <c r="I23">
-        <v>4.522083986463665</v>
+        <v>4.348543392199825</v>
       </c>
       <c r="J23">
-        <v>7.422092544554141</v>
+        <v>7.103634234047083</v>
       </c>
       <c r="K23">
-        <v>12.94430819898608</v>
+        <v>11.87133009736824</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.54051750577901</v>
       </c>
       <c r="M23">
-        <v>26.36285075848575</v>
+        <v>7.826024444695978</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.43158618748658</v>
+        <v>26.28954504409358</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11.89800956412387</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>23.40874527100846</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.069941545531</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.644734602684369</v>
+        <v>5.561089907072867</v>
       </c>
       <c r="D24">
-        <v>5.945517971184735</v>
+        <v>6.154949449385521</v>
       </c>
       <c r="E24">
-        <v>14.61968023939889</v>
+        <v>14.50154794394793</v>
       </c>
       <c r="F24">
-        <v>15.80539451208092</v>
+        <v>15.08408305377133</v>
       </c>
       <c r="G24">
-        <v>18.05894977814913</v>
+        <v>16.55302854040325</v>
       </c>
       <c r="H24">
-        <v>2.651424299844232</v>
+        <v>2.59922252580345</v>
       </c>
       <c r="I24">
-        <v>4.259655799878381</v>
+        <v>4.130802406431363</v>
       </c>
       <c r="J24">
-        <v>7.490721109690456</v>
+        <v>7.884174950128162</v>
       </c>
       <c r="K24">
-        <v>12.7316591188864</v>
+        <v>12.01673891476358</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.88720208618563</v>
       </c>
       <c r="M24">
-        <v>24.5547678045264</v>
+        <v>7.448132151234852</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.80007533587129</v>
+        <v>24.49831209215737</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11.84255794884308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>21.78449245695529</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>11.38205319057187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.095464985399719</v>
+        <v>5.158756182707245</v>
       </c>
       <c r="D25">
-        <v>5.532654220462946</v>
+        <v>5.696766146589506</v>
       </c>
       <c r="E25">
-        <v>13.66310206968494</v>
+        <v>13.57008484636641</v>
       </c>
       <c r="F25">
-        <v>15.22856111410275</v>
+        <v>14.68635512882103</v>
       </c>
       <c r="G25">
-        <v>17.40066826861115</v>
+        <v>15.91278480234868</v>
       </c>
       <c r="H25">
-        <v>2.288669832064243</v>
+        <v>2.249975049581752</v>
       </c>
       <c r="I25">
-        <v>3.966053656164954</v>
+        <v>3.877684019716217</v>
       </c>
       <c r="J25">
-        <v>7.583692918048289</v>
+        <v>8.038013281413861</v>
       </c>
       <c r="K25">
-        <v>12.5286238040449</v>
+        <v>11.97525793942962</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.13555983967669</v>
       </c>
       <c r="M25">
-        <v>22.44106550089639</v>
+        <v>6.894666311236895</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.89569564010151</v>
+        <v>22.39735001131864</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11.82855547803508</v>
+        <v>19.88544751549208</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>11.49301358691153</v>
       </c>
     </row>
   </sheetData>
